--- a/data_processing_steps.xlsx
+++ b/data_processing_steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212C72C-BB97-4E14-B362-9E7F1A0B53AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFCE75-28A4-4EDD-BE0D-F0FC896F30FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>Description</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Extract authors from RDF files using Python</t>
+  </si>
+  <si>
+    <t>project-gutenberg_extract_tar.py ; project-gutenberg_dataset_tar.csv</t>
   </si>
 </sst>
 </file>
@@ -495,6 +498,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -504,6 +519,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,6 +558,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,66 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,7 +932,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="76" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,55 +964,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="25" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="25" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="27"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1199,90 +1202,90 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="37" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="39"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="37"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="43" t="s">
+      <c r="O5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="36"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="32"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="46"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="44"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="35"/>
     </row>
     <row r="7" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1347,13 +1350,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1409,9 +1412,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="13" t="s">
         <v>63</v>
       </c>
@@ -1424,7 +1427,9 @@
       <c r="G9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="I9" s="22" t="s">
         <v>18</v>
       </c>
@@ -1508,16 +1513,30 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="V5:V6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Q5:Q6"/>
@@ -1529,20 +1548,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 I3:I5 L3:L5 O3:O5 R3:R5 U3:U5 X3:X5 F7:F10 I7:I10 L7:L10 O7:O10 R7:R10 U7:U10 X7:X10">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="o">

--- a/data_processing_steps.xlsx
+++ b/data_processing_steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDFCE75-28A4-4EDD-BE0D-F0FC896F30FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE620ACA-4206-4A7E-A996-1B0BAA89D052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
   </bookViews>
@@ -498,66 +498,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -575,18 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313ED6AA-E40B-4F2D-856B-DF3408688DB2}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="76" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -950,7 +950,7 @@
     <col min="11" max="11" width="24" style="12" customWidth="1"/>
     <col min="12" max="12" width="6.453125" style="8" customWidth="1"/>
     <col min="13" max="13" width="29.81640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="26.7265625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="31.90625" style="8" customWidth="1"/>
     <col min="15" max="15" width="6.453125" style="8" customWidth="1"/>
     <col min="16" max="16" width="29.453125" style="12" customWidth="1"/>
     <col min="17" max="17" width="22.54296875" style="12" customWidth="1"/>
@@ -964,55 +964,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="42" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="29" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="42" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="29" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="42" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="43"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="29" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1202,90 +1202,90 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="32" t="s">
+      <c r="J5" s="53"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="36"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="32"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="34" t="s">
+      <c r="O5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="39"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="37"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="35"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="42"/>
     </row>
     <row r="7" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1350,13 +1350,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="47" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1412,9 +1412,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="13" t="s">
         <v>63</v>
       </c>
@@ -1513,25 +1513,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1548,6 +1529,25 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 I3:I5 L3:L5 O3:O5 R3:R5 U3:U5 X3:X5 F7:F10 I7:I10 L7:L10 O7:O10 R7:R10 U7:U10 X7:X10">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="o">

--- a/data_processing_steps.xlsx
+++ b/data_processing_steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE620ACA-4206-4A7E-A996-1B0BAA89D052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3F0E72-CA7C-453E-A1C7-28C69F91FF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>.py ; estc_dataset_standardized.csv</t>
   </si>
   <si>
-    <t>estc_dataset.csv</t>
-  </si>
-  <si>
     <t>STAGE 6</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>project-gutenberg_extract_tar.py ; project-gutenberg_dataset_tar.csv</t>
+  </si>
+  <si>
+    <t>estc_extraction.py ; estc_dataset.csv</t>
   </si>
 </sst>
 </file>
@@ -498,6 +498,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,6 +519,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,6 +534,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,66 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313ED6AA-E40B-4F2D-856B-DF3408688DB2}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,55 +964,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="25" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="27"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>24</v>
@@ -1115,7 +1115,7 @@
         <v>19</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>43</v>
@@ -1159,16 +1159,16 @@
         <v>19</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>49</v>
@@ -1177,7 +1177,7 @@
         <v>18</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>50</v>
@@ -1202,90 +1202,90 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="39"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="37"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="41" t="s">
+      <c r="O5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="49"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="32"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="D6" s="33"/>
       <c r="E6" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="42"/>
+        <v>60</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="40"/>
     </row>
     <row r="7" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1298,7 +1298,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>26</v>
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>38</v>
@@ -1316,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>28</v>
@@ -1325,7 +1325,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>41</v>
@@ -1350,13 +1350,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>39</v>
@@ -1378,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>37</v>
@@ -1387,7 +1387,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>42</v>
@@ -1412,36 +1412,36 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="I9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9" s="11" t="s">
         <v>42</v>
@@ -1513,6 +1513,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1529,25 +1548,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 I3:I5 L3:L5 O3:O5 R3:R5 U3:U5 X3:X5 F7:F10 I7:I10 L7:L10 O7:O10 R7:R10 U7:U10 X7:X10">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="o">

--- a/data_processing_steps.xlsx
+++ b/data_processing_steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3F0E72-CA7C-453E-A1C7-28C69F91FF27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D08032-79AA-4BF9-A2C8-07F57400CA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
   </bookViews>
@@ -498,60 +498,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -569,24 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,7 +932,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,55 +964,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="34" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="29" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="34" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="29" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="34" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="29" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1202,90 +1202,90 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="32" t="s">
+      <c r="J5" s="53"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="32"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="39" t="s">
+      <c r="O5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="39"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="37"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="42"/>
     </row>
     <row r="7" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1350,13 +1350,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="47" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1412,9 +1412,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="13" t="s">
         <v>62</v>
       </c>
@@ -1513,25 +1513,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1548,6 +1529,25 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 I3:I5 L3:L5 O3:O5 R3:R5 U3:U5 X3:X5 F7:F10 I7:I10 L7:L10 O7:O10 R7:R10 U7:U10 X7:X10">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="o">

--- a/data_processing_steps.xlsx
+++ b/data_processing_steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D08032-79AA-4BF9-A2C8-07F57400CA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6416B0-F5BE-4FD3-9C7F-7C39F241C33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
   </bookViews>
@@ -498,6 +498,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -507,6 +519,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,6 +534,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -527,66 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313ED6AA-E40B-4F2D-856B-DF3408688DB2}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,55 +964,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="25" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="25" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="28" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="25" t="s">
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="27"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="31"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>66</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>57</v>
@@ -1202,90 +1202,90 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="32" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="37" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="35" t="s">
+      <c r="N5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="39"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="37"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="41" t="s">
+      <c r="O5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="49"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="32"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="38"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="42"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="40"/>
     </row>
     <row r="7" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1350,13 +1350,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1412,9 +1412,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="13" t="s">
         <v>62</v>
       </c>
@@ -1513,6 +1513,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1529,25 +1548,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 I3:I5 L3:L5 O3:O5 R3:R5 U3:U5 X3:X5 F7:F10 I7:I10 L7:L10 O7:O10 R7:R10 U7:U10 X7:X10">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="o">

--- a/data_processing_steps.xlsx
+++ b/data_processing_steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6416B0-F5BE-4FD3-9C7F-7C39F241C33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701F64EA-5018-4EC1-A1D2-C85F2B951DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
   </bookViews>
@@ -498,60 +498,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -569,24 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313ED6AA-E40B-4F2D-856B-DF3408688DB2}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="71" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,55 +964,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="34" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="29" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="34" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="29" t="s">
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="34" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="29" t="s">
+      <c r="T1" s="29"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="30"/>
-      <c r="X1" s="31"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>49</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>58</v>
@@ -1202,90 +1202,90 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="32" t="s">
+      <c r="J5" s="53"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="32"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="39" t="s">
+      <c r="O5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="39"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="37"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="40"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="42"/>
     </row>
     <row r="7" spans="1:24" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -1350,13 +1350,13 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="47" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1412,9 +1412,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="13" t="s">
         <v>62</v>
       </c>
@@ -1513,25 +1513,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1548,6 +1529,25 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F5 I3:I5 L3:L5 O3:O5 R3:R5 U3:U5 X3:X5 F7:F10 I7:I10 L7:L10 O7:O10 R7:R10 U7:U10 X7:X10">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="o">

--- a/data_processing_steps.xlsx
+++ b/data_processing_steps.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5595A4-F79C-4D92-8322-CA093AD3080F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B3EAD-1CD6-4403-A05B-13E4FB118C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="9210" windowHeight="10190" activeTab="1" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
   </bookViews>
   <sheets>
     <sheet name="Weeks" sheetId="2" r:id="rId1"/>
     <sheet name="Stages" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1371,10 +1370,544 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1389,6 +1922,147 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,13 +2075,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,12 +2096,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1451,750 +2194,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="49" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="50" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3649,10 +3648,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF1F6EB-64C8-4C19-8A8E-6958FD45B7F2}">
   <dimension ref="A1:BQ26"/>
   <sheetViews>
-    <sheetView zoomScale="54" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AN5" sqref="AN5"/>
+      <selection pane="topRight" activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3714,274 +3713,274 @@
     <col min="67" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="279" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:69" s="182" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="307" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="307" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="309" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="297" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="109" t="s">
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="109" t="s">
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="297" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="73" t="s">
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="299"/>
+      <c r="P1" s="251" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="77" t="s">
+      <c r="Q1" s="252"/>
+      <c r="R1" s="253"/>
+      <c r="S1" s="254"/>
+      <c r="T1" s="302" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="78"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="73" t="s">
+      <c r="U1" s="303"/>
+      <c r="V1" s="304"/>
+      <c r="W1" s="305"/>
+      <c r="X1" s="251" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="77" t="s">
+      <c r="Y1" s="252"/>
+      <c r="Z1" s="253"/>
+      <c r="AA1" s="254"/>
+      <c r="AB1" s="302" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="73" t="s">
+      <c r="AC1" s="303"/>
+      <c r="AD1" s="304"/>
+      <c r="AE1" s="305"/>
+      <c r="AF1" s="251" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="77" t="s">
+      <c r="AG1" s="252"/>
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="254"/>
+      <c r="AJ1" s="302" t="s">
         <v>82</v>
       </c>
-      <c r="AK1" s="78"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="80"/>
-      <c r="AN1" s="73" t="s">
+      <c r="AK1" s="303"/>
+      <c r="AL1" s="304"/>
+      <c r="AM1" s="305"/>
+      <c r="AN1" s="251" t="s">
         <v>83</v>
       </c>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="73" t="s">
+      <c r="AO1" s="252"/>
+      <c r="AP1" s="253"/>
+      <c r="AQ1" s="254"/>
+      <c r="AR1" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="73" t="s">
+      <c r="AS1" s="252"/>
+      <c r="AT1" s="253"/>
+      <c r="AU1" s="254"/>
+      <c r="AV1" s="251" t="s">
         <v>85</v>
       </c>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="73" t="s">
+      <c r="AW1" s="252"/>
+      <c r="AX1" s="253"/>
+      <c r="AY1" s="254"/>
+      <c r="AZ1" s="251" t="s">
         <v>95</v>
       </c>
-      <c r="BA1" s="74"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="73" t="s">
+      <c r="BA1" s="252"/>
+      <c r="BB1" s="253"/>
+      <c r="BC1" s="254"/>
+      <c r="BD1" s="251" t="s">
         <v>96</v>
       </c>
-      <c r="BE1" s="74"/>
-      <c r="BF1" s="75"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="73" t="s">
+      <c r="BE1" s="252"/>
+      <c r="BF1" s="253"/>
+      <c r="BG1" s="254"/>
+      <c r="BH1" s="251" t="s">
         <v>97</v>
       </c>
-      <c r="BI1" s="74"/>
-      <c r="BJ1" s="75"/>
-      <c r="BK1" s="76"/>
-      <c r="BL1" s="73" t="s">
+      <c r="BI1" s="252"/>
+      <c r="BJ1" s="253"/>
+      <c r="BK1" s="254"/>
+      <c r="BL1" s="251" t="s">
         <v>98</v>
       </c>
-      <c r="BM1" s="74"/>
-      <c r="BN1" s="75"/>
-      <c r="BO1" s="76"/>
+      <c r="BM1" s="252"/>
+      <c r="BN1" s="253"/>
+      <c r="BO1" s="254"/>
     </row>
-    <row r="2" spans="1:69" s="279" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="262"/>
-      <c r="B2" s="262"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="222" t="s">
+    <row r="2" spans="1:69" s="182" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="223" t="s">
+      <c r="F2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="227" t="s">
+      <c r="G2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="222" t="s">
+      <c r="H2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="223" t="s">
+      <c r="J2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="227" t="s">
+      <c r="K2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="222" t="s">
+      <c r="L2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="223" t="s">
+      <c r="N2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="227" t="s">
+      <c r="O2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="222" t="s">
+      <c r="P2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="Q2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="223" t="s">
+      <c r="R2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="227" t="s">
+      <c r="S2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="224" t="s">
+      <c r="T2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="225" t="s">
+      <c r="U2" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="226" t="s">
+      <c r="V2" s="135" t="s">
         <v>62</v>
       </c>
       <c r="W2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="222" t="s">
+      <c r="X2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="223" t="s">
+      <c r="Z2" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="227" t="s">
+      <c r="AA2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="224" t="s">
+      <c r="AB2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="225" t="s">
+      <c r="AC2" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="226" t="s">
+      <c r="AD2" s="135" t="s">
         <v>62</v>
       </c>
       <c r="AE2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AF2" s="222" t="s">
+      <c r="AF2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="226" t="s">
+      <c r="AH2" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" s="227" t="s">
+      <c r="AI2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="224" t="s">
+      <c r="AJ2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="AK2" s="225" t="s">
+      <c r="AK2" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="228" t="s">
+      <c r="AL2" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="AM2" s="227" t="s">
+      <c r="AM2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AN2" s="222" t="s">
+      <c r="AN2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="AO2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="229" t="s">
+      <c r="AP2" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="AQ2" s="227" t="s">
+      <c r="AQ2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AR2" s="222" t="s">
+      <c r="AR2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="AS2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AT2" s="229" t="s">
+      <c r="AT2" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="AU2" s="227" t="s">
+      <c r="AU2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AV2" s="222" t="s">
+      <c r="AV2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="AW2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="AX2" s="229" t="s">
+      <c r="AX2" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="AY2" s="227" t="s">
+      <c r="AY2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="AZ2" s="222" t="s">
+      <c r="AZ2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="BA2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" s="229" t="s">
+      <c r="BB2" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="BC2" s="227" t="s">
+      <c r="BC2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="BD2" s="222" t="s">
+      <c r="BD2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="BE2" s="25" t="s">
@@ -3993,487 +3992,487 @@
       <c r="BG2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BH2" s="222" t="s">
+      <c r="BH2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="BI2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="BJ2" s="229" t="s">
+      <c r="BJ2" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" s="227" t="s">
+      <c r="BK2" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="BL2" s="222" t="s">
+      <c r="BL2" s="131" t="s">
         <v>0</v>
       </c>
       <c r="BM2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="BN2" s="229" t="s">
+      <c r="BN2" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="BO2" s="227" t="s">
+      <c r="BO2" s="136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="280" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="251" t="s">
+    <row r="3" spans="1:69" s="183" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="157" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="265" t="s">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="266"/>
-      <c r="N3" s="267">
+      <c r="M3" s="170"/>
+      <c r="N3" s="171">
         <v>43723</v>
       </c>
-      <c r="O3" s="232" t="s">
+      <c r="O3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="268" t="s">
+      <c r="P3" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="269">
+      <c r="Q3" s="158"/>
+      <c r="R3" s="173">
         <v>43730</v>
       </c>
-      <c r="S3" s="232" t="s">
+      <c r="S3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="268" t="s">
+      <c r="T3" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="252"/>
-      <c r="V3" s="269">
+      <c r="U3" s="158"/>
+      <c r="V3" s="173">
         <v>43737</v>
       </c>
-      <c r="W3" s="232" t="s">
+      <c r="W3" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="270"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="270"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="268" t="s">
+      <c r="X3" s="106"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="AG3" s="252"/>
-      <c r="AH3" s="267">
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="171">
         <v>43758</v>
       </c>
-      <c r="AI3" s="271" t="s">
+      <c r="AI3" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="AJ3" s="160"/>
-      <c r="AK3" s="156"/>
-      <c r="AL3" s="164"/>
-      <c r="AM3" s="157"/>
-      <c r="AN3" s="268" t="s">
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="102"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="AO3" s="252"/>
-      <c r="AP3" s="253">
+      <c r="AO3" s="158"/>
+      <c r="AP3" s="159">
         <v>43772</v>
       </c>
-      <c r="AQ3" s="254" t="s">
+      <c r="AQ3" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="AR3" s="268" t="s">
+      <c r="AR3" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="AS3" s="252"/>
-      <c r="AT3" s="253">
+      <c r="AS3" s="158"/>
+      <c r="AT3" s="159">
         <v>43779</v>
       </c>
-      <c r="AU3" s="254" t="s">
+      <c r="AU3" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="AV3" s="268" t="s">
+      <c r="AV3" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="AW3" s="252"/>
-      <c r="AX3" s="253">
+      <c r="AW3" s="158"/>
+      <c r="AX3" s="159">
         <v>43786</v>
       </c>
-      <c r="AY3" s="254" t="s">
+      <c r="AY3" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="AZ3" s="268" t="s">
+      <c r="AZ3" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="BA3" s="252"/>
-      <c r="BB3" s="253">
+      <c r="BA3" s="158"/>
+      <c r="BB3" s="159">
         <v>43793</v>
       </c>
-      <c r="BC3" s="254" t="s">
+      <c r="BC3" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="BD3" s="274"/>
-      <c r="BE3" s="137"/>
-      <c r="BF3" s="261"/>
-      <c r="BG3" s="233"/>
-      <c r="BH3" s="251" t="s">
+      <c r="BD3" s="178"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="167"/>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="BI3" s="252"/>
-      <c r="BJ3" s="253">
+      <c r="BI3" s="158"/>
+      <c r="BJ3" s="159">
         <v>43807</v>
       </c>
-      <c r="BK3" s="254" t="s">
+      <c r="BK3" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="BL3" s="251" t="s">
+      <c r="BL3" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="BM3" s="252"/>
-      <c r="BN3" s="253">
+      <c r="BM3" s="158"/>
+      <c r="BN3" s="159">
         <v>43814</v>
       </c>
-      <c r="BO3" s="254" t="s">
+      <c r="BO3" s="160" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="281" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="242" t="s">
+    <row r="4" spans="1:69" s="184" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="245" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="230"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="244"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="244"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="245"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="231"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="246"/>
-      <c r="AA4" s="231"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="150"/>
-      <c r="AD4" s="246"/>
-      <c r="AE4" s="231"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="150"/>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="256"/>
-      <c r="AJ4" s="188"/>
-      <c r="AK4" s="189"/>
-      <c r="AL4" s="277"/>
-      <c r="AM4" s="231"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="150"/>
-      <c r="AP4" s="247"/>
-      <c r="AQ4" s="231"/>
-      <c r="AR4" s="151"/>
-      <c r="AS4" s="150"/>
-      <c r="AT4" s="247"/>
-      <c r="AU4" s="231"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="150"/>
-      <c r="AX4" s="247"/>
-      <c r="AY4" s="231"/>
-      <c r="AZ4" s="151"/>
-      <c r="BA4" s="150"/>
-      <c r="BB4" s="247"/>
-      <c r="BC4" s="231"/>
-      <c r="BD4" s="259" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="152"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="152"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="98"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="162"/>
+      <c r="AJ4" s="232"/>
+      <c r="AK4" s="236"/>
+      <c r="AL4" s="234"/>
+      <c r="AM4" s="140"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="98"/>
+      <c r="AP4" s="153"/>
+      <c r="AQ4" s="140"/>
+      <c r="AR4" s="99"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="153"/>
+      <c r="AU4" s="140"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="153"/>
+      <c r="AY4" s="140"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="153"/>
+      <c r="BC4" s="140"/>
+      <c r="BD4" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="BE4" s="230"/>
-      <c r="BF4" s="276">
+      <c r="BE4" s="139"/>
+      <c r="BF4" s="180">
         <v>43807</v>
       </c>
-      <c r="BG4" s="241" t="s">
+      <c r="BG4" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="BH4" s="249" t="s">
+      <c r="BH4" s="155" t="s">
         <v>109</v>
       </c>
       <c r="BI4" s="40"/>
-      <c r="BJ4" s="255">
+      <c r="BJ4" s="161">
         <v>43807</v>
       </c>
-      <c r="BK4" s="234" t="s">
+      <c r="BK4" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="BL4" s="239" t="s">
+      <c r="BL4" s="147" t="s">
         <v>107</v>
       </c>
-      <c r="BM4" s="230"/>
-      <c r="BN4" s="240">
+      <c r="BM4" s="139"/>
+      <c r="BN4" s="148">
         <v>43814</v>
       </c>
-      <c r="BO4" s="248" t="s">
+      <c r="BO4" s="154" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="281" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="243"/>
-      <c r="B5" s="230"/>
-      <c r="C5" s="231"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="245"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="231"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="246"/>
-      <c r="AA5" s="231"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="150"/>
-      <c r="AD5" s="246"/>
-      <c r="AE5" s="231"/>
-      <c r="AF5" s="151"/>
-      <c r="AG5" s="150"/>
-      <c r="AH5" s="125"/>
-      <c r="AI5" s="238"/>
-      <c r="AJ5" s="199"/>
-      <c r="AK5" s="177"/>
-      <c r="AL5" s="177"/>
-      <c r="AM5" s="231"/>
-      <c r="AN5" s="151"/>
-      <c r="AO5" s="150"/>
-      <c r="AP5" s="247"/>
-      <c r="AQ5" s="231"/>
-      <c r="AR5" s="151"/>
-      <c r="AS5" s="150"/>
-      <c r="AT5" s="247"/>
-      <c r="AU5" s="231"/>
-      <c r="AV5" s="151"/>
-      <c r="AW5" s="150"/>
-      <c r="AX5" s="247"/>
-      <c r="AY5" s="231"/>
-      <c r="AZ5" s="151"/>
-      <c r="BA5" s="150"/>
-      <c r="BB5" s="247"/>
-      <c r="BC5" s="231"/>
-      <c r="BD5" s="257" t="s">
+    <row r="5" spans="1:69" s="184" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="246"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="98"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="146"/>
+      <c r="AJ5" s="233"/>
+      <c r="AK5" s="235"/>
+      <c r="AL5" s="235"/>
+      <c r="AM5" s="140"/>
+      <c r="AN5" s="99"/>
+      <c r="AO5" s="98"/>
+      <c r="AP5" s="153"/>
+      <c r="AQ5" s="140"/>
+      <c r="AR5" s="99"/>
+      <c r="AS5" s="98"/>
+      <c r="AT5" s="153"/>
+      <c r="AU5" s="140"/>
+      <c r="AV5" s="99"/>
+      <c r="AW5" s="98"/>
+      <c r="AX5" s="153"/>
+      <c r="AY5" s="140"/>
+      <c r="AZ5" s="99"/>
+      <c r="BA5" s="98"/>
+      <c r="BB5" s="153"/>
+      <c r="BC5" s="140"/>
+      <c r="BD5" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="BE5" s="136"/>
-      <c r="BF5" s="260">
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="166">
         <v>43814</v>
       </c>
-      <c r="BG5" s="275" t="s">
+      <c r="BG5" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="BH5" s="239" t="s">
+      <c r="BH5" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="BI5" s="230"/>
-      <c r="BJ5" s="240">
+      <c r="BI5" s="139"/>
+      <c r="BJ5" s="148">
         <v>43814</v>
       </c>
-      <c r="BK5" s="237" t="s">
+      <c r="BK5" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="BL5" s="257" t="s">
+      <c r="BL5" s="163" t="s">
         <v>108</v>
       </c>
-      <c r="BM5" s="136"/>
-      <c r="BN5" s="258">
+      <c r="BM5" s="89"/>
+      <c r="BN5" s="164">
         <v>43814</v>
       </c>
-      <c r="BO5" s="237" t="s">
+      <c r="BO5" s="145" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="280" customFormat="1" ht="77" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="273" t="s">
+    <row r="6" spans="1:69" s="183" customFormat="1" ht="77" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158"/>
-      <c r="N6" s="158"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="160"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="161"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="162"/>
-      <c r="W6" s="157"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="162"/>
-      <c r="AA6" s="157"/>
-      <c r="AB6" s="160"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="162"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="160"/>
-      <c r="AG6" s="156"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="272" t="s">
+      <c r="B6" s="106"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="102"/>
+      <c r="Z6" s="108"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="108"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="109"/>
+      <c r="AJ6" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="AK6" s="250" t="s">
+      <c r="AK6" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="AL6" s="219">
+      <c r="AL6" s="128">
         <v>43765</v>
       </c>
-      <c r="AM6" s="167" t="s">
+      <c r="AM6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AN6" s="160"/>
-      <c r="AO6" s="156"/>
-      <c r="AP6" s="162"/>
-      <c r="AQ6" s="163"/>
-      <c r="AR6" s="160"/>
-      <c r="AS6" s="156"/>
-      <c r="AT6" s="164"/>
-      <c r="AU6" s="157"/>
-      <c r="AV6" s="160"/>
-      <c r="AW6" s="156"/>
-      <c r="AX6" s="164"/>
-      <c r="AY6" s="157"/>
-      <c r="AZ6" s="160"/>
-      <c r="BA6" s="156"/>
-      <c r="BB6" s="164"/>
-      <c r="BC6" s="157"/>
-      <c r="BD6" s="160"/>
-      <c r="BE6" s="156"/>
-      <c r="BF6" s="164"/>
-      <c r="BG6" s="157"/>
-      <c r="BH6" s="160"/>
-      <c r="BI6" s="156"/>
-      <c r="BJ6" s="164"/>
-      <c r="BK6" s="157"/>
-      <c r="BL6" s="160"/>
-      <c r="BM6" s="156"/>
-      <c r="BN6" s="164"/>
-      <c r="BO6" s="157"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="102"/>
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="109"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="102"/>
+      <c r="AT6" s="110"/>
+      <c r="AU6" s="103"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="102"/>
+      <c r="AX6" s="110"/>
+      <c r="AY6" s="103"/>
+      <c r="AZ6" s="106"/>
+      <c r="BA6" s="102"/>
+      <c r="BB6" s="110"/>
+      <c r="BC6" s="103"/>
+      <c r="BD6" s="106"/>
+      <c r="BE6" s="102"/>
+      <c r="BF6" s="110"/>
+      <c r="BG6" s="103"/>
+      <c r="BH6" s="106"/>
+      <c r="BI6" s="102"/>
+      <c r="BJ6" s="110"/>
+      <c r="BK6" s="103"/>
+      <c r="BL6" s="106"/>
+      <c r="BM6" s="102"/>
+      <c r="BN6" s="110"/>
+      <c r="BO6" s="103"/>
     </row>
-    <row r="7" spans="1:69" s="281" customFormat="1" ht="77" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="155" t="s">
+    <row r="7" spans="1:69" s="184" customFormat="1" ht="77" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="156"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="158"/>
-      <c r="N7" s="158"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="162"/>
-      <c r="W7" s="157"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="156"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="157"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="156"/>
-      <c r="AD7" s="162"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="160"/>
-      <c r="AG7" s="156"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="163"/>
-      <c r="AJ7" s="160"/>
-      <c r="AK7" s="156"/>
-      <c r="AL7" s="165"/>
-      <c r="AM7" s="163"/>
-      <c r="AN7" s="160"/>
-      <c r="AO7" s="156"/>
-      <c r="AP7" s="164"/>
-      <c r="AQ7" s="163"/>
-      <c r="AR7" s="160"/>
-      <c r="AS7" s="156"/>
-      <c r="AT7" s="165"/>
-      <c r="AU7" s="163"/>
-      <c r="AV7" s="272" t="s">
+      <c r="B7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="102"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="109"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="109"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="102"/>
+      <c r="AP7" s="110"/>
+      <c r="AQ7" s="109"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="102"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="109"/>
+      <c r="AV7" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="AW7" s="250"/>
-      <c r="AX7" s="166">
+      <c r="AW7" s="156"/>
+      <c r="AX7" s="112">
         <v>43793</v>
       </c>
-      <c r="AY7" s="167" t="s">
+      <c r="AY7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AZ7" s="272" t="s">
+      <c r="AZ7" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="BA7" s="250" t="s">
+      <c r="BA7" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="BB7" s="166">
+      <c r="BB7" s="112">
         <v>43793</v>
       </c>
-      <c r="BC7" s="167" t="s">
+      <c r="BC7" s="113" t="s">
         <v>18</v>
       </c>
       <c r="BD7" s="45" t="s">
@@ -4488,1057 +4487,1057 @@
       <c r="BG7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="BH7" s="160"/>
-      <c r="BI7" s="156"/>
-      <c r="BJ7" s="164"/>
-      <c r="BK7" s="157"/>
-      <c r="BL7" s="160"/>
-      <c r="BM7" s="156"/>
-      <c r="BN7" s="164"/>
-      <c r="BO7" s="157"/>
+      <c r="BH7" s="106"/>
+      <c r="BI7" s="102"/>
+      <c r="BJ7" s="110"/>
+      <c r="BK7" s="103"/>
+      <c r="BL7" s="106"/>
+      <c r="BM7" s="102"/>
+      <c r="BN7" s="110"/>
+      <c r="BO7" s="103"/>
     </row>
-    <row r="8" spans="1:69" s="281" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="185" t="s">
+    <row r="8" spans="1:69" s="184" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="281" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="281" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="282" t="s">
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="275" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="113" t="s">
+      <c r="Q8" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="143">
+      <c r="R8" s="256">
         <v>43729</v>
       </c>
-      <c r="S8" s="144" t="s">
+      <c r="S8" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="169"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="146"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="132" t="s">
+      <c r="T8" s="290"/>
+      <c r="U8" s="291"/>
+      <c r="V8" s="250"/>
+      <c r="W8" s="292"/>
+      <c r="X8" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="Y8" s="131" t="s">
+      <c r="Y8" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="114">
+      <c r="Z8" s="72">
         <v>43744</v>
       </c>
-      <c r="AA8" s="148" t="s">
+      <c r="AA8" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="150"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="151"/>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="152"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="168"/>
-      <c r="AK8" s="116"/>
-      <c r="AL8" s="146"/>
-      <c r="AM8" s="130"/>
-      <c r="AN8" s="282" t="s">
+      <c r="AB8" s="97"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="99"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="100"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="247"/>
+      <c r="AK8" s="248"/>
+      <c r="AL8" s="250"/>
+      <c r="AM8" s="249"/>
+      <c r="AN8" s="275" t="s">
         <v>54</v>
       </c>
-      <c r="AO8" s="283" t="s">
+      <c r="AO8" s="276" t="s">
         <v>43</v>
       </c>
-      <c r="AP8" s="153">
+      <c r="AP8" s="267">
         <v>43772</v>
       </c>
-      <c r="AQ8" s="154" t="s">
+      <c r="AQ8" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="AR8" s="168"/>
-      <c r="AS8" s="129"/>
-      <c r="AT8" s="129"/>
-      <c r="AU8" s="130"/>
-      <c r="AV8" s="151"/>
-      <c r="AW8" s="150"/>
-      <c r="AX8" s="152"/>
-      <c r="AY8" s="231"/>
-      <c r="AZ8" s="151"/>
-      <c r="BA8" s="150"/>
-      <c r="BB8" s="152"/>
-      <c r="BC8" s="231"/>
-      <c r="BD8" s="151"/>
-      <c r="BE8" s="150"/>
-      <c r="BF8" s="152"/>
-      <c r="BG8" s="231"/>
-      <c r="BH8" s="151"/>
-      <c r="BI8" s="150"/>
-      <c r="BJ8" s="152"/>
-      <c r="BK8" s="231"/>
-      <c r="BL8" s="151"/>
-      <c r="BM8" s="150"/>
-      <c r="BN8" s="152"/>
-      <c r="BO8" s="231"/>
+      <c r="AR8" s="247"/>
+      <c r="AS8" s="265"/>
+      <c r="AT8" s="265"/>
+      <c r="AU8" s="249"/>
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="98"/>
+      <c r="AX8" s="100"/>
+      <c r="AY8" s="140"/>
+      <c r="AZ8" s="99"/>
+      <c r="BA8" s="98"/>
+      <c r="BB8" s="100"/>
+      <c r="BC8" s="140"/>
+      <c r="BD8" s="99"/>
+      <c r="BE8" s="98"/>
+      <c r="BF8" s="100"/>
+      <c r="BG8" s="140"/>
+      <c r="BH8" s="99"/>
+      <c r="BI8" s="98"/>
+      <c r="BJ8" s="100"/>
+      <c r="BK8" s="140"/>
+      <c r="BL8" s="99"/>
+      <c r="BM8" s="98"/>
+      <c r="BN8" s="100"/>
+      <c r="BO8" s="140"/>
     </row>
     <row r="9" spans="1:69" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="204"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="284"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="286"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="286"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="286"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="287"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="176"/>
-      <c r="T9" s="199"/>
-      <c r="U9" s="177"/>
-      <c r="V9" s="178"/>
-      <c r="W9" s="179"/>
-      <c r="X9" s="288" t="s">
+      <c r="A9" s="260"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="280"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="185"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="294"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="286"/>
+      <c r="T9" s="233"/>
+      <c r="U9" s="235"/>
+      <c r="V9" s="242"/>
+      <c r="W9" s="288"/>
+      <c r="X9" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="Y9" s="289" t="s">
+      <c r="Y9" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="Z9" s="138">
+      <c r="Z9" s="91">
         <v>43744</v>
       </c>
-      <c r="AA9" s="172" t="s">
+      <c r="AA9" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="291"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="174"/>
-      <c r="AF9" s="290"/>
-      <c r="AG9" s="291"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="174"/>
-      <c r="AJ9" s="200"/>
-      <c r="AK9" s="201"/>
-      <c r="AL9" s="178"/>
-      <c r="AM9" s="202"/>
-      <c r="AN9" s="203"/>
-      <c r="AO9" s="292"/>
-      <c r="AP9" s="170"/>
-      <c r="AQ9" s="171"/>
-      <c r="AR9" s="200"/>
-      <c r="AS9" s="235"/>
-      <c r="AT9" s="235"/>
-      <c r="AU9" s="202"/>
-      <c r="AV9" s="290"/>
-      <c r="AW9" s="291"/>
-      <c r="AX9" s="293"/>
-      <c r="AY9" s="174"/>
-      <c r="AZ9" s="290"/>
-      <c r="BA9" s="291"/>
-      <c r="BB9" s="293"/>
-      <c r="BC9" s="174"/>
-      <c r="BD9" s="290"/>
-      <c r="BE9" s="291"/>
-      <c r="BF9" s="293"/>
-      <c r="BG9" s="174"/>
-      <c r="BH9" s="290"/>
-      <c r="BI9" s="291"/>
-      <c r="BJ9" s="293"/>
-      <c r="BK9" s="174"/>
-      <c r="BL9" s="290"/>
-      <c r="BM9" s="291"/>
-      <c r="BN9" s="293"/>
-      <c r="BO9" s="174"/>
+      <c r="AB9" s="189"/>
+      <c r="AC9" s="190"/>
+      <c r="AD9" s="115"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="189"/>
+      <c r="AG9" s="190"/>
+      <c r="AH9" s="115"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="238"/>
+      <c r="AK9" s="240"/>
+      <c r="AL9" s="242"/>
+      <c r="AM9" s="244"/>
+      <c r="AN9" s="258"/>
+      <c r="AO9" s="270"/>
+      <c r="AP9" s="262"/>
+      <c r="AQ9" s="264"/>
+      <c r="AR9" s="238"/>
+      <c r="AS9" s="266"/>
+      <c r="AT9" s="266"/>
+      <c r="AU9" s="244"/>
+      <c r="AV9" s="189"/>
+      <c r="AW9" s="190"/>
+      <c r="AX9" s="191"/>
+      <c r="AY9" s="116"/>
+      <c r="AZ9" s="189"/>
+      <c r="BA9" s="190"/>
+      <c r="BB9" s="191"/>
+      <c r="BC9" s="116"/>
+      <c r="BD9" s="189"/>
+      <c r="BE9" s="190"/>
+      <c r="BF9" s="191"/>
+      <c r="BG9" s="116"/>
+      <c r="BH9" s="189"/>
+      <c r="BI9" s="190"/>
+      <c r="BJ9" s="191"/>
+      <c r="BK9" s="116"/>
+      <c r="BL9" s="189"/>
+      <c r="BM9" s="190"/>
+      <c r="BN9" s="191"/>
+      <c r="BO9" s="116"/>
     </row>
     <row r="10" spans="1:69" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="181" t="s">
+      <c r="B10" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="294" t="s">
+      <c r="C10" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="295"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
-      <c r="G10" s="296"/>
-      <c r="H10" s="295"/>
-      <c r="I10" s="295"/>
-      <c r="J10" s="295"/>
-      <c r="K10" s="296"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-      <c r="O10" s="296"/>
-      <c r="P10" s="180" t="s">
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
+      <c r="N10" s="192"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="297" t="s">
+      <c r="Q10" s="293" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="186">
+      <c r="R10" s="271">
         <v>43729</v>
       </c>
-      <c r="S10" s="187" t="s">
+      <c r="S10" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="188"/>
-      <c r="U10" s="189"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="192"/>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="192"/>
-      <c r="AC10" s="193"/>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="194"/>
-      <c r="AF10" s="298" t="s">
+      <c r="T10" s="232"/>
+      <c r="U10" s="236"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="287"/>
+      <c r="X10" s="237"/>
+      <c r="Y10" s="239"/>
+      <c r="Z10" s="241"/>
+      <c r="AA10" s="243"/>
+      <c r="AB10" s="237"/>
+      <c r="AC10" s="239"/>
+      <c r="AD10" s="241"/>
+      <c r="AE10" s="243"/>
+      <c r="AF10" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="AG10" s="299" t="s">
+      <c r="AG10" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="AH10" s="195">
+      <c r="AH10" s="117">
         <v>43758</v>
       </c>
-      <c r="AI10" s="196" t="s">
+      <c r="AI10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="AJ10" s="192"/>
-      <c r="AK10" s="193"/>
-      <c r="AL10" s="190"/>
-      <c r="AM10" s="194"/>
-      <c r="AN10" s="180" t="s">
+      <c r="AJ10" s="237"/>
+      <c r="AK10" s="239"/>
+      <c r="AL10" s="241"/>
+      <c r="AM10" s="243"/>
+      <c r="AN10" s="257" t="s">
         <v>54</v>
       </c>
-      <c r="AO10" s="300" t="s">
+      <c r="AO10" s="269" t="s">
         <v>48</v>
       </c>
-      <c r="AP10" s="198">
+      <c r="AP10" s="261">
         <v>43772</v>
       </c>
-      <c r="AQ10" s="182" t="s">
+      <c r="AQ10" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="AR10" s="192"/>
-      <c r="AS10" s="193"/>
-      <c r="AT10" s="190"/>
-      <c r="AU10" s="194"/>
-      <c r="AV10" s="192"/>
-      <c r="AW10" s="193"/>
-      <c r="AX10" s="193"/>
-      <c r="AY10" s="194"/>
-      <c r="AZ10" s="192"/>
-      <c r="BA10" s="193"/>
-      <c r="BB10" s="193"/>
-      <c r="BC10" s="194"/>
-      <c r="BD10" s="192"/>
-      <c r="BE10" s="193"/>
-      <c r="BF10" s="193"/>
-      <c r="BG10" s="194"/>
-      <c r="BH10" s="192"/>
-      <c r="BI10" s="193"/>
-      <c r="BJ10" s="193"/>
-      <c r="BK10" s="194"/>
-      <c r="BL10" s="192"/>
-      <c r="BM10" s="193"/>
-      <c r="BN10" s="193"/>
-      <c r="BO10" s="194"/>
+      <c r="AR10" s="237"/>
+      <c r="AS10" s="239"/>
+      <c r="AT10" s="241"/>
+      <c r="AU10" s="243"/>
+      <c r="AV10" s="237"/>
+      <c r="AW10" s="239"/>
+      <c r="AX10" s="239"/>
+      <c r="AY10" s="243"/>
+      <c r="AZ10" s="237"/>
+      <c r="BA10" s="239"/>
+      <c r="BB10" s="239"/>
+      <c r="BC10" s="243"/>
+      <c r="BD10" s="237"/>
+      <c r="BE10" s="239"/>
+      <c r="BF10" s="239"/>
+      <c r="BG10" s="243"/>
+      <c r="BH10" s="237"/>
+      <c r="BI10" s="239"/>
+      <c r="BJ10" s="239"/>
+      <c r="BK10" s="243"/>
+      <c r="BL10" s="237"/>
+      <c r="BM10" s="239"/>
+      <c r="BN10" s="239"/>
+      <c r="BO10" s="243"/>
     </row>
     <row r="11" spans="1:69" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="203"/>
-      <c r="B11" s="204"/>
-      <c r="C11" s="284"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="285"/>
-      <c r="G11" s="286"/>
-      <c r="H11" s="285"/>
-      <c r="I11" s="285"/>
-      <c r="J11" s="285"/>
-      <c r="K11" s="286"/>
-      <c r="L11" s="285"/>
-      <c r="M11" s="285"/>
-      <c r="N11" s="285"/>
-      <c r="O11" s="286"/>
-      <c r="P11" s="203"/>
-      <c r="Q11" s="287"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="176"/>
-      <c r="T11" s="199"/>
-      <c r="U11" s="177"/>
-      <c r="V11" s="178"/>
-      <c r="W11" s="179"/>
-      <c r="X11" s="200"/>
-      <c r="Y11" s="201"/>
-      <c r="Z11" s="178"/>
-      <c r="AA11" s="202"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="201"/>
-      <c r="AD11" s="178"/>
-      <c r="AE11" s="202"/>
-      <c r="AF11" s="288" t="s">
+      <c r="A11" s="258"/>
+      <c r="B11" s="260"/>
+      <c r="C11" s="280"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="185"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="294"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="286"/>
+      <c r="T11" s="233"/>
+      <c r="U11" s="235"/>
+      <c r="V11" s="242"/>
+      <c r="W11" s="288"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="240"/>
+      <c r="Z11" s="242"/>
+      <c r="AA11" s="244"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="240"/>
+      <c r="AD11" s="242"/>
+      <c r="AE11" s="244"/>
+      <c r="AF11" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="AG11" s="289" t="s">
+      <c r="AG11" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="AH11" s="138">
+      <c r="AH11" s="91">
         <v>43758</v>
       </c>
-      <c r="AI11" s="139" t="s">
+      <c r="AI11" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AJ11" s="200"/>
-      <c r="AK11" s="201"/>
-      <c r="AL11" s="178"/>
-      <c r="AM11" s="202"/>
-      <c r="AN11" s="203"/>
-      <c r="AO11" s="292"/>
-      <c r="AP11" s="170"/>
-      <c r="AQ11" s="171"/>
-      <c r="AR11" s="200"/>
-      <c r="AS11" s="201"/>
-      <c r="AT11" s="178"/>
-      <c r="AU11" s="202"/>
-      <c r="AV11" s="200"/>
-      <c r="AW11" s="201"/>
-      <c r="AX11" s="201"/>
-      <c r="AY11" s="202"/>
-      <c r="AZ11" s="200"/>
-      <c r="BA11" s="201"/>
-      <c r="BB11" s="201"/>
-      <c r="BC11" s="202"/>
-      <c r="BD11" s="200"/>
-      <c r="BE11" s="201"/>
-      <c r="BF11" s="201"/>
-      <c r="BG11" s="202"/>
-      <c r="BH11" s="200"/>
-      <c r="BI11" s="201"/>
-      <c r="BJ11" s="201"/>
-      <c r="BK11" s="202"/>
-      <c r="BL11" s="200"/>
-      <c r="BM11" s="201"/>
-      <c r="BN11" s="201"/>
-      <c r="BO11" s="202"/>
+      <c r="AJ11" s="238"/>
+      <c r="AK11" s="240"/>
+      <c r="AL11" s="242"/>
+      <c r="AM11" s="244"/>
+      <c r="AN11" s="258"/>
+      <c r="AO11" s="270"/>
+      <c r="AP11" s="262"/>
+      <c r="AQ11" s="264"/>
+      <c r="AR11" s="238"/>
+      <c r="AS11" s="240"/>
+      <c r="AT11" s="242"/>
+      <c r="AU11" s="244"/>
+      <c r="AV11" s="238"/>
+      <c r="AW11" s="240"/>
+      <c r="AX11" s="240"/>
+      <c r="AY11" s="244"/>
+      <c r="AZ11" s="238"/>
+      <c r="BA11" s="240"/>
+      <c r="BB11" s="240"/>
+      <c r="BC11" s="244"/>
+      <c r="BD11" s="238"/>
+      <c r="BE11" s="240"/>
+      <c r="BF11" s="240"/>
+      <c r="BG11" s="244"/>
+      <c r="BH11" s="238"/>
+      <c r="BI11" s="240"/>
+      <c r="BJ11" s="240"/>
+      <c r="BK11" s="244"/>
+      <c r="BL11" s="238"/>
+      <c r="BM11" s="240"/>
+      <c r="BN11" s="240"/>
+      <c r="BO11" s="244"/>
     </row>
     <row r="12" spans="1:69" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="185" t="s">
+      <c r="B12" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="301" t="s">
+      <c r="C12" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="302"/>
-      <c r="E12" s="302"/>
-      <c r="F12" s="302"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="302"/>
-      <c r="I12" s="302"/>
-      <c r="J12" s="302"/>
-      <c r="K12" s="303"/>
-      <c r="L12" s="302"/>
-      <c r="M12" s="302"/>
-      <c r="N12" s="302"/>
-      <c r="O12" s="303"/>
-      <c r="P12" s="304" t="s">
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
+      <c r="L12" s="197"/>
+      <c r="M12" s="197"/>
+      <c r="N12" s="197"/>
+      <c r="O12" s="198"/>
+      <c r="P12" s="296" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="305" t="s">
+      <c r="Q12" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="183">
+      <c r="R12" s="300">
         <v>43729</v>
       </c>
-      <c r="S12" s="144" t="s">
+      <c r="S12" s="289" t="s">
         <v>19</v>
       </c>
       <c r="T12" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="283" t="s">
+      <c r="U12" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="183">
+      <c r="V12" s="300">
         <v>43744</v>
       </c>
-      <c r="W12" s="184" t="s">
+      <c r="W12" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="307"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="125"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="307"/>
-      <c r="AC12" s="116"/>
-      <c r="AD12" s="146"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="307"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="146"/>
-      <c r="AI12" s="130"/>
-      <c r="AJ12" s="307"/>
-      <c r="AK12" s="116"/>
-      <c r="AL12" s="129"/>
-      <c r="AM12" s="130"/>
-      <c r="AN12" s="307"/>
-      <c r="AO12" s="116"/>
-      <c r="AP12" s="146"/>
-      <c r="AQ12" s="130"/>
-      <c r="AR12" s="307"/>
-      <c r="AS12" s="116"/>
-      <c r="AT12" s="146"/>
-      <c r="AU12" s="130"/>
-      <c r="AV12" s="304" t="s">
+      <c r="X12" s="255"/>
+      <c r="Y12" s="248"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="249"/>
+      <c r="AB12" s="255"/>
+      <c r="AC12" s="248"/>
+      <c r="AD12" s="250"/>
+      <c r="AE12" s="249"/>
+      <c r="AF12" s="255"/>
+      <c r="AG12" s="248"/>
+      <c r="AH12" s="250"/>
+      <c r="AI12" s="249"/>
+      <c r="AJ12" s="255"/>
+      <c r="AK12" s="248"/>
+      <c r="AL12" s="265"/>
+      <c r="AM12" s="249"/>
+      <c r="AN12" s="255"/>
+      <c r="AO12" s="248"/>
+      <c r="AP12" s="250"/>
+      <c r="AQ12" s="249"/>
+      <c r="AR12" s="255"/>
+      <c r="AS12" s="248"/>
+      <c r="AT12" s="250"/>
+      <c r="AU12" s="249"/>
+      <c r="AV12" s="296" t="s">
         <v>54</v>
       </c>
-      <c r="AW12" s="185" t="s">
+      <c r="AW12" s="281" t="s">
         <v>40</v>
       </c>
-      <c r="AX12" s="143">
+      <c r="AX12" s="256">
         <v>43786</v>
       </c>
-      <c r="AY12" s="154" t="s">
+      <c r="AY12" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="AZ12" s="307"/>
-      <c r="BA12" s="116"/>
-      <c r="BB12" s="116"/>
-      <c r="BC12" s="130"/>
-      <c r="BD12" s="307"/>
-      <c r="BE12" s="116"/>
-      <c r="BF12" s="116"/>
-      <c r="BG12" s="130"/>
-      <c r="BH12" s="307"/>
-      <c r="BI12" s="116"/>
-      <c r="BJ12" s="116"/>
-      <c r="BK12" s="130"/>
-      <c r="BL12" s="307"/>
-      <c r="BM12" s="116"/>
-      <c r="BN12" s="116"/>
-      <c r="BO12" s="130"/>
+      <c r="AZ12" s="255"/>
+      <c r="BA12" s="248"/>
+      <c r="BB12" s="248"/>
+      <c r="BC12" s="249"/>
+      <c r="BD12" s="255"/>
+      <c r="BE12" s="248"/>
+      <c r="BF12" s="248"/>
+      <c r="BG12" s="249"/>
+      <c r="BH12" s="255"/>
+      <c r="BI12" s="248"/>
+      <c r="BJ12" s="248"/>
+      <c r="BK12" s="249"/>
+      <c r="BL12" s="255"/>
+      <c r="BM12" s="248"/>
+      <c r="BN12" s="248"/>
+      <c r="BO12" s="249"/>
     </row>
     <row r="13" spans="1:69" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="185"/>
-      <c r="B13" s="185"/>
-      <c r="C13" s="117" t="s">
+      <c r="A13" s="281"/>
+      <c r="B13" s="281"/>
+      <c r="C13" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="302"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="302"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="302"/>
-      <c r="I13" s="302"/>
-      <c r="J13" s="302"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="302"/>
-      <c r="M13" s="302"/>
-      <c r="N13" s="302"/>
-      <c r="O13" s="303"/>
-      <c r="P13" s="304"/>
-      <c r="Q13" s="308" t="s">
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="197"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="296"/>
+      <c r="Q13" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="183"/>
-      <c r="S13" s="144"/>
+      <c r="R13" s="300"/>
+      <c r="S13" s="289"/>
       <c r="T13" s="306"/>
-      <c r="U13" s="283"/>
-      <c r="V13" s="183"/>
-      <c r="W13" s="184"/>
-      <c r="X13" s="307"/>
-      <c r="Y13" s="116"/>
-      <c r="Z13" s="125"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="307"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="146"/>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="307"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="146"/>
-      <c r="AI13" s="130"/>
-      <c r="AJ13" s="307"/>
-      <c r="AK13" s="116"/>
-      <c r="AL13" s="129"/>
-      <c r="AM13" s="130"/>
-      <c r="AN13" s="307"/>
-      <c r="AO13" s="116"/>
-      <c r="AP13" s="146"/>
-      <c r="AQ13" s="130"/>
-      <c r="AR13" s="307"/>
-      <c r="AS13" s="116"/>
-      <c r="AT13" s="146"/>
-      <c r="AU13" s="130"/>
-      <c r="AV13" s="304"/>
-      <c r="AW13" s="185"/>
-      <c r="AX13" s="143"/>
-      <c r="AY13" s="154"/>
-      <c r="AZ13" s="307"/>
-      <c r="BA13" s="116"/>
-      <c r="BB13" s="116"/>
-      <c r="BC13" s="130"/>
-      <c r="BD13" s="307"/>
-      <c r="BE13" s="116"/>
-      <c r="BF13" s="116"/>
-      <c r="BG13" s="130"/>
-      <c r="BH13" s="307"/>
-      <c r="BI13" s="116"/>
-      <c r="BJ13" s="116"/>
-      <c r="BK13" s="130"/>
-      <c r="BL13" s="307"/>
-      <c r="BM13" s="116"/>
-      <c r="BN13" s="116"/>
-      <c r="BO13" s="130"/>
+      <c r="U13" s="276"/>
+      <c r="V13" s="300"/>
+      <c r="W13" s="301"/>
+      <c r="X13" s="255"/>
+      <c r="Y13" s="248"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="249"/>
+      <c r="AB13" s="255"/>
+      <c r="AC13" s="248"/>
+      <c r="AD13" s="250"/>
+      <c r="AE13" s="249"/>
+      <c r="AF13" s="255"/>
+      <c r="AG13" s="248"/>
+      <c r="AH13" s="250"/>
+      <c r="AI13" s="249"/>
+      <c r="AJ13" s="255"/>
+      <c r="AK13" s="248"/>
+      <c r="AL13" s="265"/>
+      <c r="AM13" s="249"/>
+      <c r="AN13" s="255"/>
+      <c r="AO13" s="248"/>
+      <c r="AP13" s="250"/>
+      <c r="AQ13" s="249"/>
+      <c r="AR13" s="255"/>
+      <c r="AS13" s="248"/>
+      <c r="AT13" s="250"/>
+      <c r="AU13" s="249"/>
+      <c r="AV13" s="296"/>
+      <c r="AW13" s="281"/>
+      <c r="AX13" s="256"/>
+      <c r="AY13" s="268"/>
+      <c r="AZ13" s="255"/>
+      <c r="BA13" s="248"/>
+      <c r="BB13" s="248"/>
+      <c r="BC13" s="249"/>
+      <c r="BD13" s="255"/>
+      <c r="BE13" s="248"/>
+      <c r="BF13" s="248"/>
+      <c r="BG13" s="249"/>
+      <c r="BH13" s="255"/>
+      <c r="BI13" s="248"/>
+      <c r="BJ13" s="248"/>
+      <c r="BK13" s="249"/>
+      <c r="BL13" s="255"/>
+      <c r="BM13" s="248"/>
+      <c r="BN13" s="248"/>
+      <c r="BO13" s="249"/>
     </row>
     <row r="14" spans="1:69" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="180" t="s">
+      <c r="A14" s="257" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="294" t="s">
+      <c r="C14" s="279" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="295"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="295"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="295"/>
-      <c r="I14" s="295"/>
-      <c r="J14" s="295"/>
-      <c r="K14" s="296"/>
-      <c r="L14" s="295"/>
-      <c r="M14" s="295"/>
-      <c r="N14" s="295"/>
-      <c r="O14" s="296"/>
-      <c r="P14" s="180" t="s">
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="192"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="257" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="181" t="s">
+      <c r="Q14" s="259" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="186">
+      <c r="R14" s="271">
         <v>43729</v>
       </c>
-      <c r="S14" s="210" t="s">
+      <c r="S14" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="309"/>
-      <c r="U14" s="310"/>
-      <c r="V14" s="211"/>
-      <c r="W14" s="197"/>
-      <c r="X14" s="298" t="s">
+      <c r="T14" s="201"/>
+      <c r="U14" s="202"/>
+      <c r="V14" s="121"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="194" t="s">
         <v>51</v>
       </c>
-      <c r="Y14" s="299" t="s">
+      <c r="Y14" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="Z14" s="195">
+      <c r="Z14" s="117">
         <v>43744</v>
       </c>
-      <c r="AA14" s="196" t="s">
+      <c r="AA14" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="AB14" s="309"/>
-      <c r="AC14" s="310"/>
-      <c r="AD14" s="212"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="311"/>
-      <c r="AG14" s="310"/>
-      <c r="AH14" s="212"/>
-      <c r="AI14" s="197"/>
-      <c r="AJ14" s="192"/>
-      <c r="AK14" s="193"/>
-      <c r="AL14" s="190"/>
-      <c r="AM14" s="194"/>
-      <c r="AN14" s="192"/>
-      <c r="AO14" s="193"/>
-      <c r="AP14" s="190"/>
-      <c r="AQ14" s="194"/>
-      <c r="AR14" s="180" t="s">
+      <c r="AB14" s="201"/>
+      <c r="AC14" s="202"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="203"/>
+      <c r="AG14" s="202"/>
+      <c r="AH14" s="122"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="237"/>
+      <c r="AK14" s="239"/>
+      <c r="AL14" s="241"/>
+      <c r="AM14" s="243"/>
+      <c r="AN14" s="237"/>
+      <c r="AO14" s="239"/>
+      <c r="AP14" s="241"/>
+      <c r="AQ14" s="243"/>
+      <c r="AR14" s="257" t="s">
         <v>54</v>
       </c>
-      <c r="AS14" s="181" t="s">
+      <c r="AS14" s="259" t="s">
         <v>41</v>
       </c>
-      <c r="AT14" s="198">
+      <c r="AT14" s="261">
         <v>43779</v>
       </c>
-      <c r="AU14" s="182" t="s">
+      <c r="AU14" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="AV14" s="311"/>
-      <c r="AW14" s="310"/>
-      <c r="AX14" s="312"/>
-      <c r="AY14" s="194"/>
-      <c r="AZ14" s="311"/>
-      <c r="BA14" s="310"/>
-      <c r="BB14" s="312"/>
-      <c r="BC14" s="194"/>
-      <c r="BD14" s="311"/>
-      <c r="BE14" s="310"/>
-      <c r="BF14" s="312"/>
-      <c r="BG14" s="194"/>
-      <c r="BH14" s="311"/>
-      <c r="BI14" s="310"/>
-      <c r="BJ14" s="312"/>
-      <c r="BK14" s="194"/>
-      <c r="BL14" s="311"/>
-      <c r="BM14" s="310"/>
-      <c r="BN14" s="312"/>
-      <c r="BO14" s="194"/>
+      <c r="AV14" s="203"/>
+      <c r="AW14" s="202"/>
+      <c r="AX14" s="204"/>
+      <c r="AY14" s="243"/>
+      <c r="AZ14" s="203"/>
+      <c r="BA14" s="202"/>
+      <c r="BB14" s="204"/>
+      <c r="BC14" s="243"/>
+      <c r="BD14" s="203"/>
+      <c r="BE14" s="202"/>
+      <c r="BF14" s="204"/>
+      <c r="BG14" s="243"/>
+      <c r="BH14" s="203"/>
+      <c r="BI14" s="202"/>
+      <c r="BJ14" s="204"/>
+      <c r="BK14" s="243"/>
+      <c r="BL14" s="203"/>
+      <c r="BM14" s="202"/>
+      <c r="BN14" s="204"/>
+      <c r="BO14" s="243"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="8"/>
     </row>
     <row r="15" spans="1:69" ht="63.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="203"/>
-      <c r="B15" s="204"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="285"/>
-      <c r="F15" s="285"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="285"/>
-      <c r="I15" s="285"/>
-      <c r="J15" s="285"/>
-      <c r="K15" s="286"/>
-      <c r="L15" s="285"/>
-      <c r="M15" s="285"/>
-      <c r="N15" s="285"/>
-      <c r="O15" s="286"/>
-      <c r="P15" s="203"/>
-      <c r="Q15" s="204"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="213"/>
-      <c r="T15" s="290"/>
-      <c r="U15" s="291"/>
-      <c r="V15" s="214"/>
-      <c r="W15" s="215"/>
-      <c r="X15" s="314" t="s">
+      <c r="A15" s="258"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="280"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="258"/>
+      <c r="Q15" s="260"/>
+      <c r="R15" s="272"/>
+      <c r="S15" s="274"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="190"/>
+      <c r="V15" s="123"/>
+      <c r="W15" s="124"/>
+      <c r="X15" s="206" t="s">
         <v>53</v>
       </c>
-      <c r="Y15" s="315" t="s">
+      <c r="Y15" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="Z15" s="216">
+      <c r="Z15" s="125">
         <v>43744</v>
       </c>
-      <c r="AA15" s="172" t="s">
+      <c r="AA15" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="AB15" s="290"/>
-      <c r="AC15" s="291"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="174"/>
-      <c r="AF15" s="290"/>
-      <c r="AG15" s="291"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="174"/>
-      <c r="AJ15" s="200"/>
-      <c r="AK15" s="201"/>
-      <c r="AL15" s="178"/>
-      <c r="AM15" s="202"/>
-      <c r="AN15" s="200"/>
-      <c r="AO15" s="201"/>
-      <c r="AP15" s="178"/>
-      <c r="AQ15" s="202"/>
-      <c r="AR15" s="203"/>
-      <c r="AS15" s="204"/>
-      <c r="AT15" s="170"/>
-      <c r="AU15" s="171"/>
-      <c r="AV15" s="290"/>
-      <c r="AW15" s="291"/>
-      <c r="AX15" s="293"/>
-      <c r="AY15" s="202"/>
-      <c r="AZ15" s="290"/>
-      <c r="BA15" s="291"/>
-      <c r="BB15" s="293"/>
-      <c r="BC15" s="202"/>
-      <c r="BD15" s="290"/>
-      <c r="BE15" s="291"/>
-      <c r="BF15" s="293"/>
-      <c r="BG15" s="202"/>
-      <c r="BH15" s="290"/>
-      <c r="BI15" s="291"/>
-      <c r="BJ15" s="293"/>
-      <c r="BK15" s="202"/>
-      <c r="BL15" s="290"/>
-      <c r="BM15" s="291"/>
-      <c r="BN15" s="293"/>
-      <c r="BO15" s="202"/>
+      <c r="AB15" s="189"/>
+      <c r="AC15" s="190"/>
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="116"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="190"/>
+      <c r="AH15" s="115"/>
+      <c r="AI15" s="116"/>
+      <c r="AJ15" s="238"/>
+      <c r="AK15" s="240"/>
+      <c r="AL15" s="242"/>
+      <c r="AM15" s="244"/>
+      <c r="AN15" s="238"/>
+      <c r="AO15" s="240"/>
+      <c r="AP15" s="242"/>
+      <c r="AQ15" s="244"/>
+      <c r="AR15" s="258"/>
+      <c r="AS15" s="260"/>
+      <c r="AT15" s="262"/>
+      <c r="AU15" s="264"/>
+      <c r="AV15" s="189"/>
+      <c r="AW15" s="190"/>
+      <c r="AX15" s="191"/>
+      <c r="AY15" s="244"/>
+      <c r="AZ15" s="189"/>
+      <c r="BA15" s="190"/>
+      <c r="BB15" s="191"/>
+      <c r="BC15" s="244"/>
+      <c r="BD15" s="189"/>
+      <c r="BE15" s="190"/>
+      <c r="BF15" s="191"/>
+      <c r="BG15" s="244"/>
+      <c r="BH15" s="189"/>
+      <c r="BI15" s="190"/>
+      <c r="BJ15" s="191"/>
+      <c r="BK15" s="244"/>
+      <c r="BL15" s="189"/>
+      <c r="BM15" s="190"/>
+      <c r="BN15" s="191"/>
+      <c r="BO15" s="244"/>
     </row>
     <row r="16" spans="1:69" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="248" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="185" t="s">
+      <c r="B16" s="281" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="282" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="205"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="316"/>
-      <c r="M16" s="302"/>
-      <c r="N16" s="302"/>
-      <c r="O16" s="303"/>
-      <c r="P16" s="282" t="s">
+      <c r="D16" s="284"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="277"/>
+      <c r="G16" s="278"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="277"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="278"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="198"/>
+      <c r="P16" s="275" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="185" t="s">
+      <c r="Q16" s="281" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="143">
+      <c r="R16" s="256">
         <v>43729</v>
       </c>
-      <c r="S16" s="208" t="s">
+      <c r="S16" s="283" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="168"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="146"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="132" t="s">
+      <c r="T16" s="247"/>
+      <c r="U16" s="248"/>
+      <c r="V16" s="250"/>
+      <c r="W16" s="249"/>
+      <c r="X16" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="Y16" s="131" t="s">
+      <c r="Y16" s="84" t="s">
         <v>39</v>
       </c>
       <c r="Z16" s="53">
         <v>43744</v>
       </c>
-      <c r="AA16" s="148" t="s">
+      <c r="AA16" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="AB16" s="317"/>
-      <c r="AC16" s="318"/>
-      <c r="AD16" s="125"/>
-      <c r="AE16" s="126"/>
-      <c r="AF16" s="319"/>
-      <c r="AG16" s="318"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="126"/>
-      <c r="AJ16" s="319"/>
-      <c r="AK16" s="127"/>
-      <c r="AL16" s="209"/>
-      <c r="AM16" s="126"/>
-      <c r="AN16" s="319"/>
-      <c r="AO16" s="318"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="126"/>
-      <c r="AR16" s="168"/>
-      <c r="AS16" s="129"/>
-      <c r="AT16" s="129"/>
-      <c r="AU16" s="130"/>
-      <c r="AV16" s="168"/>
-      <c r="AW16" s="116"/>
-      <c r="AX16" s="116"/>
-      <c r="AY16" s="130"/>
-      <c r="AZ16" s="168"/>
-      <c r="BA16" s="116"/>
-      <c r="BB16" s="116"/>
-      <c r="BC16" s="130"/>
-      <c r="BD16" s="168"/>
-      <c r="BE16" s="116"/>
-      <c r="BF16" s="116"/>
-      <c r="BG16" s="130"/>
-      <c r="BH16" s="168"/>
-      <c r="BI16" s="116"/>
-      <c r="BJ16" s="116"/>
-      <c r="BK16" s="130"/>
-      <c r="BL16" s="168"/>
-      <c r="BM16" s="116"/>
-      <c r="BN16" s="116"/>
-      <c r="BO16" s="130"/>
+      <c r="AB16" s="209"/>
+      <c r="AC16" s="210"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="81"/>
+      <c r="AF16" s="211"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="211"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="81"/>
+      <c r="AN16" s="211"/>
+      <c r="AO16" s="210"/>
+      <c r="AP16" s="80"/>
+      <c r="AQ16" s="81"/>
+      <c r="AR16" s="247"/>
+      <c r="AS16" s="265"/>
+      <c r="AT16" s="265"/>
+      <c r="AU16" s="249"/>
+      <c r="AV16" s="247"/>
+      <c r="AW16" s="248"/>
+      <c r="AX16" s="248"/>
+      <c r="AY16" s="249"/>
+      <c r="AZ16" s="247"/>
+      <c r="BA16" s="248"/>
+      <c r="BB16" s="248"/>
+      <c r="BC16" s="249"/>
+      <c r="BD16" s="247"/>
+      <c r="BE16" s="248"/>
+      <c r="BF16" s="248"/>
+      <c r="BG16" s="249"/>
+      <c r="BH16" s="247"/>
+      <c r="BI16" s="248"/>
+      <c r="BJ16" s="248"/>
+      <c r="BK16" s="249"/>
+      <c r="BL16" s="247"/>
+      <c r="BM16" s="248"/>
+      <c r="BN16" s="248"/>
+      <c r="BO16" s="249"/>
     </row>
     <row r="17" spans="1:67" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="116"/>
-      <c r="B17" s="185"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="206"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="302"/>
-      <c r="M17" s="302"/>
-      <c r="N17" s="302"/>
-      <c r="O17" s="303"/>
-      <c r="P17" s="282"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="208"/>
-      <c r="T17" s="168"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="146"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="133" t="s">
+      <c r="A17" s="248"/>
+      <c r="B17" s="281"/>
+      <c r="C17" s="282"/>
+      <c r="D17" s="284"/>
+      <c r="E17" s="277"/>
+      <c r="F17" s="277"/>
+      <c r="G17" s="278"/>
+      <c r="H17" s="284"/>
+      <c r="I17" s="277"/>
+      <c r="J17" s="277"/>
+      <c r="K17" s="278"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="198"/>
+      <c r="P17" s="275"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="256"/>
+      <c r="S17" s="283"/>
+      <c r="T17" s="247"/>
+      <c r="U17" s="248"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="249"/>
+      <c r="X17" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="Y17" s="320" t="s">
+      <c r="Y17" s="212" t="s">
         <v>37</v>
       </c>
       <c r="Z17" s="52">
         <v>43744</v>
       </c>
-      <c r="AA17" s="217" t="s">
+      <c r="AA17" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="AB17" s="319"/>
-      <c r="AC17" s="318"/>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="126"/>
-      <c r="AF17" s="319"/>
-      <c r="AG17" s="318"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="126"/>
-      <c r="AJ17" s="319"/>
-      <c r="AK17" s="318"/>
-      <c r="AL17" s="218"/>
-      <c r="AM17" s="126"/>
-      <c r="AN17" s="319"/>
-      <c r="AO17" s="318"/>
-      <c r="AP17" s="125"/>
-      <c r="AQ17" s="126"/>
-      <c r="AR17" s="168"/>
-      <c r="AS17" s="129"/>
-      <c r="AT17" s="129"/>
-      <c r="AU17" s="130"/>
-      <c r="AV17" s="168"/>
-      <c r="AW17" s="116"/>
-      <c r="AX17" s="116"/>
-      <c r="AY17" s="130"/>
-      <c r="AZ17" s="168"/>
-      <c r="BA17" s="116"/>
-      <c r="BB17" s="116"/>
-      <c r="BC17" s="130"/>
-      <c r="BD17" s="168"/>
-      <c r="BE17" s="116"/>
-      <c r="BF17" s="116"/>
-      <c r="BG17" s="130"/>
-      <c r="BH17" s="168"/>
-      <c r="BI17" s="116"/>
-      <c r="BJ17" s="116"/>
-      <c r="BK17" s="130"/>
-      <c r="BL17" s="168"/>
-      <c r="BM17" s="116"/>
-      <c r="BN17" s="116"/>
-      <c r="BO17" s="130"/>
+      <c r="AB17" s="211"/>
+      <c r="AC17" s="210"/>
+      <c r="AD17" s="80"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="211"/>
+      <c r="AG17" s="210"/>
+      <c r="AH17" s="80"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="211"/>
+      <c r="AK17" s="210"/>
+      <c r="AL17" s="127"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="211"/>
+      <c r="AO17" s="210"/>
+      <c r="AP17" s="80"/>
+      <c r="AQ17" s="81"/>
+      <c r="AR17" s="247"/>
+      <c r="AS17" s="265"/>
+      <c r="AT17" s="265"/>
+      <c r="AU17" s="249"/>
+      <c r="AV17" s="247"/>
+      <c r="AW17" s="248"/>
+      <c r="AX17" s="248"/>
+      <c r="AY17" s="249"/>
+      <c r="AZ17" s="247"/>
+      <c r="BA17" s="248"/>
+      <c r="BB17" s="248"/>
+      <c r="BC17" s="249"/>
+      <c r="BD17" s="247"/>
+      <c r="BE17" s="248"/>
+      <c r="BF17" s="248"/>
+      <c r="BG17" s="249"/>
+      <c r="BH17" s="247"/>
+      <c r="BI17" s="248"/>
+      <c r="BJ17" s="248"/>
+      <c r="BK17" s="249"/>
+      <c r="BL17" s="247"/>
+      <c r="BM17" s="248"/>
+      <c r="BN17" s="248"/>
+      <c r="BO17" s="249"/>
     </row>
     <row r="18" spans="1:67" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="321" t="s">
+      <c r="A18" s="213" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="322" t="s">
+      <c r="B18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="323" t="s">
+      <c r="C18" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="324"/>
-      <c r="E18" s="324"/>
-      <c r="F18" s="324"/>
-      <c r="G18" s="325"/>
-      <c r="H18" s="324"/>
-      <c r="I18" s="324"/>
-      <c r="J18" s="324"/>
-      <c r="K18" s="325"/>
-      <c r="L18" s="324"/>
-      <c r="M18" s="324"/>
-      <c r="N18" s="324"/>
-      <c r="O18" s="325"/>
-      <c r="P18" s="326"/>
-      <c r="Q18" s="327"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="326"/>
-      <c r="U18" s="327"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="326"/>
-      <c r="Y18" s="327"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="328" t="s">
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="216"/>
+      <c r="M18" s="216"/>
+      <c r="N18" s="216"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="218"/>
+      <c r="Q18" s="219"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="218"/>
+      <c r="U18" s="219"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="109"/>
+      <c r="X18" s="218"/>
+      <c r="Y18" s="219"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="109"/>
+      <c r="AB18" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="AC18" s="322" t="s">
+      <c r="AC18" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AD18" s="219">
+      <c r="AD18" s="128">
         <v>43751</v>
       </c>
-      <c r="AE18" s="220" t="s">
+      <c r="AE18" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="AF18" s="326"/>
-      <c r="AG18" s="327"/>
-      <c r="AH18" s="162"/>
-      <c r="AI18" s="163"/>
-      <c r="AJ18" s="329" t="s">
+      <c r="AF18" s="218"/>
+      <c r="AG18" s="219"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="109"/>
+      <c r="AJ18" s="221" t="s">
         <v>53</v>
       </c>
-      <c r="AK18" s="330" t="s">
+      <c r="AK18" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="AL18" s="221">
+      <c r="AL18" s="130">
         <v>43765</v>
       </c>
-      <c r="AM18" s="220" t="s">
+      <c r="AM18" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN18" s="218"/>
+      <c r="AO18" s="219"/>
+      <c r="AP18" s="108"/>
+      <c r="AQ18" s="109"/>
+      <c r="AR18" s="220" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS18" s="214" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT18" s="130">
+        <v>43779</v>
+      </c>
+      <c r="AU18" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="AN18" s="326"/>
-      <c r="AO18" s="327"/>
-      <c r="AP18" s="162"/>
-      <c r="AQ18" s="163"/>
-      <c r="AR18" s="328" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS18" s="322" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT18" s="221">
-        <v>43779</v>
-      </c>
-      <c r="AU18" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV18" s="326"/>
-      <c r="AW18" s="327"/>
-      <c r="AX18" s="331"/>
-      <c r="AY18" s="163"/>
-      <c r="AZ18" s="326"/>
-      <c r="BA18" s="327"/>
-      <c r="BB18" s="331"/>
-      <c r="BC18" s="163"/>
-      <c r="BD18" s="326"/>
-      <c r="BE18" s="327"/>
-      <c r="BF18" s="331"/>
-      <c r="BG18" s="163"/>
-      <c r="BH18" s="326"/>
-      <c r="BI18" s="327"/>
-      <c r="BJ18" s="331"/>
-      <c r="BK18" s="163"/>
-      <c r="BL18" s="326"/>
-      <c r="BM18" s="327"/>
-      <c r="BN18" s="331"/>
-      <c r="BO18" s="163"/>
+      <c r="AV18" s="218"/>
+      <c r="AW18" s="219"/>
+      <c r="AX18" s="223"/>
+      <c r="AY18" s="109"/>
+      <c r="AZ18" s="218"/>
+      <c r="BA18" s="219"/>
+      <c r="BB18" s="223"/>
+      <c r="BC18" s="109"/>
+      <c r="BD18" s="218"/>
+      <c r="BE18" s="219"/>
+      <c r="BF18" s="223"/>
+      <c r="BG18" s="109"/>
+      <c r="BH18" s="218"/>
+      <c r="BI18" s="219"/>
+      <c r="BJ18" s="223"/>
+      <c r="BK18" s="109"/>
+      <c r="BL18" s="218"/>
+      <c r="BM18" s="219"/>
+      <c r="BN18" s="223"/>
+      <c r="BO18" s="109"/>
     </row>
     <row r="19" spans="1:67" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="332" t="s">
+      <c r="C19" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="333"/>
-      <c r="E19" s="333"/>
-      <c r="F19" s="333"/>
-      <c r="G19" s="334"/>
-      <c r="H19" s="333"/>
-      <c r="I19" s="333"/>
-      <c r="J19" s="333"/>
-      <c r="K19" s="334"/>
-      <c r="L19" s="333"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="333"/>
-      <c r="O19" s="334"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="134"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="225"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="226"/>
+      <c r="L19" s="225"/>
+      <c r="M19" s="225"/>
+      <c r="N19" s="225"/>
+      <c r="O19" s="226"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="87"/>
       <c r="R19" s="61"/>
       <c r="S19" s="27"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="134"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="87"/>
       <c r="V19" s="61"/>
       <c r="W19" s="27"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="134"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="87"/>
       <c r="Z19" s="61"/>
       <c r="AA19" s="27"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="134"/>
+      <c r="AB19" s="83"/>
+      <c r="AC19" s="87"/>
       <c r="AD19" s="61"/>
       <c r="AE19" s="27"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="134"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="87"/>
       <c r="AH19" s="61"/>
       <c r="AI19" s="27"/>
-      <c r="AJ19" s="128"/>
-      <c r="AK19" s="134"/>
-      <c r="AL19" s="123"/>
+      <c r="AJ19" s="83"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="78"/>
       <c r="AM19" s="27"/>
-      <c r="AN19" s="128"/>
-      <c r="AO19" s="134"/>
-      <c r="AP19" s="123"/>
+      <c r="AN19" s="83"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="78"/>
       <c r="AQ19" s="27"/>
-      <c r="AR19" s="128"/>
-      <c r="AS19" s="134"/>
-      <c r="AT19" s="123"/>
+      <c r="AR19" s="83"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="78"/>
       <c r="AU19" s="27"/>
-      <c r="AV19" s="128"/>
-      <c r="AW19" s="134"/>
-      <c r="AX19" s="123"/>
+      <c r="AV19" s="83"/>
+      <c r="AW19" s="87"/>
+      <c r="AX19" s="78"/>
       <c r="AY19" s="27"/>
-      <c r="AZ19" s="128"/>
-      <c r="BA19" s="134"/>
-      <c r="BB19" s="123"/>
+      <c r="AZ19" s="83"/>
+      <c r="BA19" s="87"/>
+      <c r="BB19" s="78"/>
       <c r="BC19" s="27"/>
-      <c r="BD19" s="128"/>
-      <c r="BE19" s="134"/>
-      <c r="BF19" s="123"/>
+      <c r="BD19" s="83"/>
+      <c r="BE19" s="87"/>
+      <c r="BF19" s="78"/>
       <c r="BG19" s="27"/>
-      <c r="BH19" s="128"/>
-      <c r="BI19" s="134"/>
-      <c r="BJ19" s="123"/>
+      <c r="BH19" s="83"/>
+      <c r="BI19" s="87"/>
+      <c r="BJ19" s="78"/>
       <c r="BK19" s="27"/>
-      <c r="BL19" s="128"/>
-      <c r="BM19" s="134"/>
-      <c r="BN19" s="123"/>
+      <c r="BL19" s="83"/>
+      <c r="BM19" s="87"/>
+      <c r="BN19" s="78"/>
       <c r="BO19" s="27"/>
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.35">
@@ -5548,184 +5547,20 @@
     </row>
   </sheetData>
   <mergeCells count="216">
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BM16:BM17"/>
-    <mergeCell ref="BN16:BN17"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BL10:BL11"/>
-    <mergeCell ref="BM10:BM11"/>
-    <mergeCell ref="BN10:BN11"/>
-    <mergeCell ref="BO10:BO11"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BM12:BM13"/>
-    <mergeCell ref="BN12:BN13"/>
-    <mergeCell ref="BO12:BO13"/>
-    <mergeCell ref="BH12:BH13"/>
-    <mergeCell ref="BI12:BI13"/>
-    <mergeCell ref="BJ12:BJ13"/>
-    <mergeCell ref="BK12:BK13"/>
-    <mergeCell ref="BK14:BK15"/>
-    <mergeCell ref="BH16:BH17"/>
-    <mergeCell ref="BI16:BI17"/>
-    <mergeCell ref="BJ16:BJ17"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="BG14:BG15"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="BE16:BE17"/>
-    <mergeCell ref="BF16:BF17"/>
-    <mergeCell ref="BG16:BG17"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BH10:BH11"/>
-    <mergeCell ref="BI10:BI11"/>
-    <mergeCell ref="BJ10:BJ11"/>
-    <mergeCell ref="BK10:BK11"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD10:BD11"/>
-    <mergeCell ref="BE10:BE11"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="BG10:BG11"/>
-    <mergeCell ref="BD12:BD13"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="BG12:BG13"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="BA12:BA13"/>
-    <mergeCell ref="BB12:BB13"/>
-    <mergeCell ref="BC12:BC13"/>
-    <mergeCell ref="BC14:BC15"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="BA10:BA11"/>
-    <mergeCell ref="BB10:BB11"/>
-    <mergeCell ref="BC10:BC11"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AW10:AW11"/>
-    <mergeCell ref="AX10:AX11"/>
-    <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AS16:AS17"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="AT10:AT11"/>
-    <mergeCell ref="AU10:AU11"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
@@ -5750,20 +5585,184 @@
     <mergeCell ref="AA12:AA13"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AT10:AT11"/>
+    <mergeCell ref="AU10:AU11"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="BA10:BA11"/>
+    <mergeCell ref="BB10:BB11"/>
+    <mergeCell ref="BC10:BC11"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BH10:BH11"/>
+    <mergeCell ref="BI10:BI11"/>
+    <mergeCell ref="BJ10:BJ11"/>
+    <mergeCell ref="BK10:BK11"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD10:BD11"/>
+    <mergeCell ref="BE10:BE11"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BG10:BG11"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BL10:BL11"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="BN10:BN11"/>
+    <mergeCell ref="BO10:BO11"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="BN12:BN13"/>
+    <mergeCell ref="BO12:BO13"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BM16:BM17"/>
+    <mergeCell ref="BN16:BN17"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="BH12:BH13"/>
+    <mergeCell ref="BI12:BI13"/>
+    <mergeCell ref="BJ12:BJ13"/>
+    <mergeCell ref="BK12:BK13"/>
+    <mergeCell ref="BK14:BK15"/>
+    <mergeCell ref="BH16:BH17"/>
+    <mergeCell ref="BI16:BI17"/>
+    <mergeCell ref="BJ16:BJ17"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="BG14:BG15"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BE16:BE17"/>
+    <mergeCell ref="BF16:BF17"/>
+    <mergeCell ref="BG16:BG17"/>
+    <mergeCell ref="BD12:BD13"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="BG12:BG13"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="BA12:BA13"/>
+    <mergeCell ref="BB12:BB13"/>
+    <mergeCell ref="BC12:BC13"/>
+    <mergeCell ref="BC14:BC15"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AW10:AW11"/>
+    <mergeCell ref="AX10:AX11"/>
+    <mergeCell ref="AY10:AY11"/>
   </mergeCells>
   <conditionalFormatting sqref="W12 AA9:AA10 AE9:AE10 AI9 AM12 W15:W16 AA15 AE15:AE17 AI15:AI19 AM16:AM17 AI12 AM19 AE19 S8 S12 S10 AA12 AE12 AA17:AA19 W18:W19 S18:S19 S16 S14 AQ12 AQ16:AQ19 AU16 AY10 AY16 AY14">
     <cfRule type="containsText" dxfId="112" priority="176" operator="containsText" text="o">
@@ -6670,8 +6669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313ED6AA-E40B-4F2D-856B-DF3408688DB2}">
   <dimension ref="A1:AE19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="54" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
@@ -6710,62 +6709,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="336" t="s">
+      <c r="B1" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="309" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77" t="s">
+      <c r="E1" s="252"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="302" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="73" t="s">
+      <c r="I1" s="303"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="305"/>
+      <c r="L1" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="77" t="s">
+      <c r="M1" s="252"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="302" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="73" t="s">
+      <c r="Q1" s="303"/>
+      <c r="R1" s="304"/>
+      <c r="S1" s="305"/>
+      <c r="T1" s="251" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="74"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="77" t="s">
+      <c r="U1" s="252"/>
+      <c r="V1" s="253"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="302" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="73" t="s">
+      <c r="Y1" s="303"/>
+      <c r="Z1" s="304"/>
+      <c r="AA1" s="305"/>
+      <c r="AB1" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="76"/>
+      <c r="AC1" s="252"/>
+      <c r="AD1" s="253"/>
+      <c r="AE1" s="254"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="339"/>
-      <c r="B2" s="337"/>
-      <c r="C2" s="83"/>
+      <c r="A2" s="324"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="327"/>
       <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6855,7 +6854,7 @@
       <c r="A3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="115"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="41"/>
       <c r="D3" s="42"/>
       <c r="E3" s="43"/>
@@ -6895,14 +6894,14 @@
       <c r="AE3" s="44"/>
     </row>
     <row r="4" spans="1:31" s="65" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="135" t="s">
+      <c r="A4" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="41"/>
       <c r="D4" s="42"/>
       <c r="E4" s="43"/>
-      <c r="F4" s="118"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="64"/>
       <c r="H4" s="42"/>
       <c r="I4" s="43"/>
@@ -6946,10 +6945,10 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="335" t="s">
+      <c r="B5" s="227" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="14" t="s">
@@ -7008,8 +7007,8 @@
         <v>18</v>
       </c>
       <c r="X5" s="58"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="121"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="76"/>
       <c r="AA5" s="62"/>
       <c r="AB5" s="58"/>
       <c r="AC5" s="59"/>
@@ -7017,10 +7016,10 @@
       <c r="AE5" s="62"/>
     </row>
     <row r="6" spans="1:31" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="335" t="s">
+      <c r="B6" s="227" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -7079,8 +7078,8 @@
         <v>18</v>
       </c>
       <c r="X6" s="58"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="121"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="76"/>
       <c r="AA6" s="62"/>
       <c r="AB6" s="58"/>
       <c r="AC6" s="59"/>
@@ -7088,110 +7087,110 @@
       <c r="AE6" s="62"/>
     </row>
     <row r="7" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="344" t="s">
+      <c r="A7" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="330" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="330" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="342">
         <v>43729</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="90" t="s">
+      <c r="H7" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="I7" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="94">
+      <c r="J7" s="342">
         <v>43744</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="315" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="106"/>
-      <c r="M7" s="102"/>
+      <c r="L7" s="321"/>
+      <c r="M7" s="317"/>
       <c r="N7" s="60"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="86" t="s">
+      <c r="O7" s="319"/>
+      <c r="P7" s="321"/>
+      <c r="Q7" s="317"/>
+      <c r="R7" s="344"/>
+      <c r="S7" s="319"/>
+      <c r="T7" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="84" t="s">
+      <c r="U7" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="71">
+      <c r="V7" s="332">
         <v>43779</v>
       </c>
-      <c r="W7" s="98" t="s">
+      <c r="W7" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="102"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="236"/>
-      <c r="AE7" s="104"/>
+      <c r="X7" s="321"/>
+      <c r="Y7" s="317"/>
+      <c r="Z7" s="334"/>
+      <c r="AA7" s="319"/>
+      <c r="AB7" s="321"/>
+      <c r="AC7" s="317"/>
+      <c r="AD7" s="144"/>
+      <c r="AE7" s="319"/>
     </row>
     <row r="8" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="345"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="329"/>
+      <c r="B8" s="331"/>
       <c r="C8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="331"/>
       <c r="E8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="103"/>
+      <c r="F8" s="343"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="341"/>
+      <c r="J8" s="343"/>
+      <c r="K8" s="316"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="318"/>
       <c r="N8" s="61"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="124"/>
-      <c r="AE8" s="105"/>
+      <c r="O8" s="320"/>
+      <c r="P8" s="322"/>
+      <c r="Q8" s="318"/>
+      <c r="R8" s="345"/>
+      <c r="S8" s="320"/>
+      <c r="T8" s="331"/>
+      <c r="U8" s="312"/>
+      <c r="V8" s="333"/>
+      <c r="W8" s="314"/>
+      <c r="X8" s="322"/>
+      <c r="Y8" s="318"/>
+      <c r="Z8" s="335"/>
+      <c r="AA8" s="320"/>
+      <c r="AB8" s="322"/>
+      <c r="AC8" s="318"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="320"/>
     </row>
     <row r="9" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="278" t="s">
+      <c r="A9" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="227" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -7250,8 +7249,8 @@
         <v>18</v>
       </c>
       <c r="X9" s="58"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="121"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="76"/>
       <c r="AA9" s="62"/>
       <c r="AB9" s="58"/>
       <c r="AC9" s="59"/>
@@ -7259,10 +7258,10 @@
       <c r="AE9" s="62"/>
     </row>
     <row r="10" spans="1:31" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="341" t="s">
+      <c r="A10" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="340" t="s">
+      <c r="B10" s="228" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="31" t="s">
@@ -7322,10 +7321,10 @@
       <c r="AE10" s="62"/>
     </row>
     <row r="11" spans="1:31" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="342" t="s">
+      <c r="A11" s="230" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="340" t="s">
+      <c r="B11" s="228" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -7384,8 +7383,8 @@
         <v>18</v>
       </c>
       <c r="X11" s="58"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="121"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="76"/>
       <c r="AA11" s="62"/>
       <c r="AB11" s="58"/>
       <c r="AC11" s="59"/>
@@ -7393,10 +7392,10 @@
       <c r="AE11" s="62"/>
     </row>
     <row r="12" spans="1:31" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="343" t="s">
+      <c r="A12" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="335" t="s">
+      <c r="B12" s="227" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -7438,6 +7437,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="W7:W8"/>
@@ -7454,27 +7474,6 @@
     <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="AA7:AA8"/>
     <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G7 K5:K7 O5:O7 AA5:AA7 AE5:AE7 G9:G12 K9:K12 O9:O12 S9:S12 W9:W12 AA9:AA12 AE9:AE12 S3:S7 W3:W7">
     <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="o">

--- a/data_processing_steps.xlsx
+++ b/data_processing_steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B3EAD-1CD6-4403-A05B-13E4FB118C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA16D5F-55D4-4A35-B073-85BE2160D993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
   </bookViews>
@@ -1853,242 +1853,311 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2125,75 +2194,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3649,9 +3649,9 @@
   <dimension ref="A1:BQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AK7" sqref="AK7"/>
+      <selection pane="topRight" activeCell="AP6" sqref="AP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3714,116 +3714,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="182" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="245" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="307" t="s">
+      <c r="B1" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="309" t="s">
+      <c r="C1" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="297" t="s">
+      <c r="D1" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="297" t="s">
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="299"/>
-      <c r="L1" s="297" t="s">
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="249" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="298"/>
-      <c r="N1" s="298"/>
-      <c r="O1" s="299"/>
-      <c r="P1" s="251" t="s">
+      <c r="M1" s="250"/>
+      <c r="N1" s="250"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="253"/>
-      <c r="S1" s="254"/>
-      <c r="T1" s="302" t="s">
+      <c r="Q1" s="237"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="239"/>
+      <c r="T1" s="232" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="303"/>
-      <c r="V1" s="304"/>
-      <c r="W1" s="305"/>
-      <c r="X1" s="251" t="s">
+      <c r="U1" s="233"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="235"/>
+      <c r="X1" s="236" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="252"/>
-      <c r="Z1" s="253"/>
-      <c r="AA1" s="254"/>
-      <c r="AB1" s="302" t="s">
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="239"/>
+      <c r="AB1" s="232" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="303"/>
-      <c r="AD1" s="304"/>
-      <c r="AE1" s="305"/>
-      <c r="AF1" s="251" t="s">
+      <c r="AC1" s="233"/>
+      <c r="AD1" s="234"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="236" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="252"/>
-      <c r="AH1" s="253"/>
-      <c r="AI1" s="254"/>
-      <c r="AJ1" s="302" t="s">
+      <c r="AG1" s="237"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
+      <c r="AJ1" s="232" t="s">
         <v>82</v>
       </c>
-      <c r="AK1" s="303"/>
-      <c r="AL1" s="304"/>
-      <c r="AM1" s="305"/>
-      <c r="AN1" s="251" t="s">
+      <c r="AK1" s="233"/>
+      <c r="AL1" s="234"/>
+      <c r="AM1" s="235"/>
+      <c r="AN1" s="236" t="s">
         <v>83</v>
       </c>
-      <c r="AO1" s="252"/>
-      <c r="AP1" s="253"/>
-      <c r="AQ1" s="254"/>
-      <c r="AR1" s="251" t="s">
+      <c r="AO1" s="237"/>
+      <c r="AP1" s="238"/>
+      <c r="AQ1" s="239"/>
+      <c r="AR1" s="236" t="s">
         <v>84</v>
       </c>
-      <c r="AS1" s="252"/>
-      <c r="AT1" s="253"/>
-      <c r="AU1" s="254"/>
-      <c r="AV1" s="251" t="s">
+      <c r="AS1" s="237"/>
+      <c r="AT1" s="238"/>
+      <c r="AU1" s="239"/>
+      <c r="AV1" s="236" t="s">
         <v>85</v>
       </c>
-      <c r="AW1" s="252"/>
-      <c r="AX1" s="253"/>
-      <c r="AY1" s="254"/>
-      <c r="AZ1" s="251" t="s">
+      <c r="AW1" s="237"/>
+      <c r="AX1" s="238"/>
+      <c r="AY1" s="239"/>
+      <c r="AZ1" s="236" t="s">
         <v>95</v>
       </c>
-      <c r="BA1" s="252"/>
-      <c r="BB1" s="253"/>
-      <c r="BC1" s="254"/>
-      <c r="BD1" s="251" t="s">
+      <c r="BA1" s="237"/>
+      <c r="BB1" s="238"/>
+      <c r="BC1" s="239"/>
+      <c r="BD1" s="236" t="s">
         <v>96</v>
       </c>
-      <c r="BE1" s="252"/>
-      <c r="BF1" s="253"/>
-      <c r="BG1" s="254"/>
-      <c r="BH1" s="251" t="s">
+      <c r="BE1" s="237"/>
+      <c r="BF1" s="238"/>
+      <c r="BG1" s="239"/>
+      <c r="BH1" s="236" t="s">
         <v>97</v>
       </c>
-      <c r="BI1" s="252"/>
-      <c r="BJ1" s="253"/>
-      <c r="BK1" s="254"/>
-      <c r="BL1" s="251" t="s">
+      <c r="BI1" s="237"/>
+      <c r="BJ1" s="238"/>
+      <c r="BK1" s="239"/>
+      <c r="BL1" s="236" t="s">
         <v>98</v>
       </c>
-      <c r="BM1" s="252"/>
-      <c r="BN1" s="253"/>
-      <c r="BO1" s="254"/>
+      <c r="BM1" s="237"/>
+      <c r="BN1" s="238"/>
+      <c r="BO1" s="239"/>
     </row>
     <row r="2" spans="1:69" s="182" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="308"/>
-      <c r="B2" s="308"/>
-      <c r="C2" s="310"/>
+      <c r="A2" s="246"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="248"/>
       <c r="D2" s="131" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +4149,7 @@
       </c>
     </row>
     <row r="4" spans="1:69" s="184" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="309" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="139"/>
@@ -4186,9 +4186,9 @@
       <c r="AG4" s="98"/>
       <c r="AH4" s="80"/>
       <c r="AI4" s="162"/>
-      <c r="AJ4" s="232"/>
-      <c r="AK4" s="236"/>
-      <c r="AL4" s="234"/>
+      <c r="AJ4" s="280"/>
+      <c r="AK4" s="282"/>
+      <c r="AL4" s="308"/>
       <c r="AM4" s="140"/>
       <c r="AN4" s="99"/>
       <c r="AO4" s="98"/>
@@ -4238,7 +4238,7 @@
       </c>
     </row>
     <row r="5" spans="1:69" s="184" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="246"/>
+      <c r="A5" s="310"/>
       <c r="B5" s="139"/>
       <c r="C5" s="140"/>
       <c r="D5" s="93"/>
@@ -4273,9 +4273,9 @@
       <c r="AG5" s="98"/>
       <c r="AH5" s="80"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="233"/>
-      <c r="AK5" s="235"/>
-      <c r="AL5" s="235"/>
+      <c r="AJ5" s="281"/>
+      <c r="AK5" s="283"/>
+      <c r="AL5" s="283"/>
       <c r="AM5" s="140"/>
       <c r="AN5" s="99"/>
       <c r="AO5" s="98"/>
@@ -4372,7 +4372,7 @@
         <v>43765</v>
       </c>
       <c r="AM6" s="113" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN6" s="106"/>
       <c r="AO6" s="102"/>
@@ -4497,13 +4497,13 @@
       <c r="BO7" s="103"/>
     </row>
     <row r="8" spans="1:69" s="184" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="281" t="s">
+      <c r="A8" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="281" t="s">
+      <c r="B8" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="282" t="s">
+      <c r="C8" s="270" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="93"/>
@@ -4518,22 +4518,22 @@
       <c r="M8" s="94"/>
       <c r="N8" s="94"/>
       <c r="O8" s="95"/>
-      <c r="P8" s="275" t="s">
+      <c r="P8" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="295" t="s">
+      <c r="Q8" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="256">
+      <c r="R8" s="286">
         <v>43729</v>
       </c>
-      <c r="S8" s="289" t="s">
+      <c r="S8" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="290"/>
-      <c r="U8" s="291"/>
-      <c r="V8" s="250"/>
-      <c r="W8" s="292"/>
+      <c r="T8" s="303"/>
+      <c r="U8" s="304"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="305"/>
       <c r="X8" s="85" t="s">
         <v>57</v>
       </c>
@@ -4554,26 +4554,26 @@
       <c r="AG8" s="98"/>
       <c r="AH8" s="100"/>
       <c r="AI8" s="81"/>
-      <c r="AJ8" s="247"/>
-      <c r="AK8" s="248"/>
-      <c r="AL8" s="250"/>
-      <c r="AM8" s="249"/>
-      <c r="AN8" s="275" t="s">
+      <c r="AJ8" s="273"/>
+      <c r="AK8" s="255"/>
+      <c r="AL8" s="252"/>
+      <c r="AM8" s="253"/>
+      <c r="AN8" s="271" t="s">
         <v>54</v>
       </c>
-      <c r="AO8" s="276" t="s">
+      <c r="AO8" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="AP8" s="267">
+      <c r="AP8" s="307">
         <v>43772</v>
       </c>
-      <c r="AQ8" s="268" t="s">
+      <c r="AQ8" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="AR8" s="247"/>
-      <c r="AS8" s="265"/>
-      <c r="AT8" s="265"/>
-      <c r="AU8" s="249"/>
+      <c r="AR8" s="273"/>
+      <c r="AS8" s="256"/>
+      <c r="AT8" s="256"/>
+      <c r="AU8" s="253"/>
       <c r="AV8" s="99"/>
       <c r="AW8" s="98"/>
       <c r="AX8" s="100"/>
@@ -4596,9 +4596,9 @@
       <c r="BO8" s="140"/>
     </row>
     <row r="9" spans="1:69" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="260"/>
-      <c r="B9" s="260"/>
-      <c r="C9" s="280"/>
+      <c r="A9" s="265"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="267"/>
       <c r="D9" s="185"/>
       <c r="E9" s="185"/>
       <c r="F9" s="185"/>
@@ -4611,14 +4611,14 @@
       <c r="M9" s="185"/>
       <c r="N9" s="185"/>
       <c r="O9" s="186"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="294"/>
-      <c r="R9" s="272"/>
-      <c r="S9" s="286"/>
-      <c r="T9" s="233"/>
-      <c r="U9" s="235"/>
-      <c r="V9" s="242"/>
-      <c r="W9" s="288"/>
+      <c r="P9" s="263"/>
+      <c r="Q9" s="269"/>
+      <c r="R9" s="298"/>
+      <c r="S9" s="302"/>
+      <c r="T9" s="281"/>
+      <c r="U9" s="283"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="285"/>
       <c r="X9" s="187" t="s">
         <v>27</v>
       </c>
@@ -4639,18 +4639,18 @@
       <c r="AG9" s="190"/>
       <c r="AH9" s="115"/>
       <c r="AI9" s="116"/>
-      <c r="AJ9" s="238"/>
-      <c r="AK9" s="240"/>
-      <c r="AL9" s="242"/>
-      <c r="AM9" s="244"/>
-      <c r="AN9" s="258"/>
-      <c r="AO9" s="270"/>
-      <c r="AP9" s="262"/>
-      <c r="AQ9" s="264"/>
-      <c r="AR9" s="238"/>
-      <c r="AS9" s="266"/>
-      <c r="AT9" s="266"/>
-      <c r="AU9" s="244"/>
+      <c r="AJ9" s="261"/>
+      <c r="AK9" s="275"/>
+      <c r="AL9" s="277"/>
+      <c r="AM9" s="279"/>
+      <c r="AN9" s="263"/>
+      <c r="AO9" s="292"/>
+      <c r="AP9" s="294"/>
+      <c r="AQ9" s="296"/>
+      <c r="AR9" s="261"/>
+      <c r="AS9" s="306"/>
+      <c r="AT9" s="306"/>
+      <c r="AU9" s="279"/>
       <c r="AV9" s="189"/>
       <c r="AW9" s="190"/>
       <c r="AX9" s="191"/>
@@ -4673,13 +4673,13 @@
       <c r="BO9" s="116"/>
     </row>
     <row r="10" spans="1:69" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="257" t="s">
+      <c r="A10" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="259" t="s">
+      <c r="B10" s="264" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="279" t="s">
+      <c r="C10" s="266" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="192"/>
@@ -4694,30 +4694,30 @@
       <c r="M10" s="192"/>
       <c r="N10" s="192"/>
       <c r="O10" s="193"/>
-      <c r="P10" s="257" t="s">
+      <c r="P10" s="262" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="293" t="s">
+      <c r="Q10" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="271">
+      <c r="R10" s="297">
         <v>43729</v>
       </c>
-      <c r="S10" s="285" t="s">
+      <c r="S10" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="232"/>
-      <c r="U10" s="236"/>
-      <c r="V10" s="241"/>
-      <c r="W10" s="287"/>
-      <c r="X10" s="237"/>
-      <c r="Y10" s="239"/>
-      <c r="Z10" s="241"/>
-      <c r="AA10" s="243"/>
-      <c r="AB10" s="237"/>
-      <c r="AC10" s="239"/>
-      <c r="AD10" s="241"/>
-      <c r="AE10" s="243"/>
+      <c r="T10" s="280"/>
+      <c r="U10" s="282"/>
+      <c r="V10" s="276"/>
+      <c r="W10" s="284"/>
+      <c r="X10" s="260"/>
+      <c r="Y10" s="274"/>
+      <c r="Z10" s="276"/>
+      <c r="AA10" s="278"/>
+      <c r="AB10" s="260"/>
+      <c r="AC10" s="274"/>
+      <c r="AD10" s="276"/>
+      <c r="AE10" s="278"/>
       <c r="AF10" s="194" t="s">
         <v>50</v>
       </c>
@@ -4730,51 +4730,51 @@
       <c r="AI10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="AJ10" s="237"/>
-      <c r="AK10" s="239"/>
-      <c r="AL10" s="241"/>
-      <c r="AM10" s="243"/>
-      <c r="AN10" s="257" t="s">
+      <c r="AJ10" s="260"/>
+      <c r="AK10" s="274"/>
+      <c r="AL10" s="276"/>
+      <c r="AM10" s="278"/>
+      <c r="AN10" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="AO10" s="269" t="s">
+      <c r="AO10" s="291" t="s">
         <v>48</v>
       </c>
-      <c r="AP10" s="261">
+      <c r="AP10" s="293">
         <v>43772</v>
       </c>
-      <c r="AQ10" s="263" t="s">
+      <c r="AQ10" s="295" t="s">
         <v>18</v>
       </c>
-      <c r="AR10" s="237"/>
-      <c r="AS10" s="239"/>
-      <c r="AT10" s="241"/>
-      <c r="AU10" s="243"/>
-      <c r="AV10" s="237"/>
-      <c r="AW10" s="239"/>
-      <c r="AX10" s="239"/>
-      <c r="AY10" s="243"/>
-      <c r="AZ10" s="237"/>
-      <c r="BA10" s="239"/>
-      <c r="BB10" s="239"/>
-      <c r="BC10" s="243"/>
-      <c r="BD10" s="237"/>
-      <c r="BE10" s="239"/>
-      <c r="BF10" s="239"/>
-      <c r="BG10" s="243"/>
-      <c r="BH10" s="237"/>
-      <c r="BI10" s="239"/>
-      <c r="BJ10" s="239"/>
-      <c r="BK10" s="243"/>
-      <c r="BL10" s="237"/>
-      <c r="BM10" s="239"/>
-      <c r="BN10" s="239"/>
-      <c r="BO10" s="243"/>
+      <c r="AR10" s="260"/>
+      <c r="AS10" s="274"/>
+      <c r="AT10" s="276"/>
+      <c r="AU10" s="278"/>
+      <c r="AV10" s="260"/>
+      <c r="AW10" s="274"/>
+      <c r="AX10" s="274"/>
+      <c r="AY10" s="278"/>
+      <c r="AZ10" s="260"/>
+      <c r="BA10" s="274"/>
+      <c r="BB10" s="274"/>
+      <c r="BC10" s="278"/>
+      <c r="BD10" s="260"/>
+      <c r="BE10" s="274"/>
+      <c r="BF10" s="274"/>
+      <c r="BG10" s="278"/>
+      <c r="BH10" s="260"/>
+      <c r="BI10" s="274"/>
+      <c r="BJ10" s="274"/>
+      <c r="BK10" s="278"/>
+      <c r="BL10" s="260"/>
+      <c r="BM10" s="274"/>
+      <c r="BN10" s="274"/>
+      <c r="BO10" s="278"/>
     </row>
     <row r="11" spans="1:69" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="258"/>
-      <c r="B11" s="260"/>
-      <c r="C11" s="280"/>
+      <c r="A11" s="263"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="267"/>
       <c r="D11" s="185"/>
       <c r="E11" s="185"/>
       <c r="F11" s="185"/>
@@ -4787,22 +4787,22 @@
       <c r="M11" s="185"/>
       <c r="N11" s="185"/>
       <c r="O11" s="186"/>
-      <c r="P11" s="258"/>
-      <c r="Q11" s="294"/>
-      <c r="R11" s="272"/>
-      <c r="S11" s="286"/>
-      <c r="T11" s="233"/>
-      <c r="U11" s="235"/>
-      <c r="V11" s="242"/>
-      <c r="W11" s="288"/>
-      <c r="X11" s="238"/>
-      <c r="Y11" s="240"/>
-      <c r="Z11" s="242"/>
-      <c r="AA11" s="244"/>
-      <c r="AB11" s="238"/>
-      <c r="AC11" s="240"/>
-      <c r="AD11" s="242"/>
-      <c r="AE11" s="244"/>
+      <c r="P11" s="263"/>
+      <c r="Q11" s="269"/>
+      <c r="R11" s="298"/>
+      <c r="S11" s="302"/>
+      <c r="T11" s="281"/>
+      <c r="U11" s="283"/>
+      <c r="V11" s="277"/>
+      <c r="W11" s="285"/>
+      <c r="X11" s="261"/>
+      <c r="Y11" s="275"/>
+      <c r="Z11" s="277"/>
+      <c r="AA11" s="279"/>
+      <c r="AB11" s="261"/>
+      <c r="AC11" s="275"/>
+      <c r="AD11" s="277"/>
+      <c r="AE11" s="279"/>
       <c r="AF11" s="187" t="s">
         <v>53</v>
       </c>
@@ -4815,44 +4815,44 @@
       <c r="AI11" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AJ11" s="238"/>
-      <c r="AK11" s="240"/>
-      <c r="AL11" s="242"/>
-      <c r="AM11" s="244"/>
-      <c r="AN11" s="258"/>
-      <c r="AO11" s="270"/>
-      <c r="AP11" s="262"/>
-      <c r="AQ11" s="264"/>
-      <c r="AR11" s="238"/>
-      <c r="AS11" s="240"/>
-      <c r="AT11" s="242"/>
-      <c r="AU11" s="244"/>
-      <c r="AV11" s="238"/>
-      <c r="AW11" s="240"/>
-      <c r="AX11" s="240"/>
-      <c r="AY11" s="244"/>
-      <c r="AZ11" s="238"/>
-      <c r="BA11" s="240"/>
-      <c r="BB11" s="240"/>
-      <c r="BC11" s="244"/>
-      <c r="BD11" s="238"/>
-      <c r="BE11" s="240"/>
-      <c r="BF11" s="240"/>
-      <c r="BG11" s="244"/>
-      <c r="BH11" s="238"/>
-      <c r="BI11" s="240"/>
-      <c r="BJ11" s="240"/>
-      <c r="BK11" s="244"/>
-      <c r="BL11" s="238"/>
-      <c r="BM11" s="240"/>
-      <c r="BN11" s="240"/>
-      <c r="BO11" s="244"/>
+      <c r="AJ11" s="261"/>
+      <c r="AK11" s="275"/>
+      <c r="AL11" s="277"/>
+      <c r="AM11" s="279"/>
+      <c r="AN11" s="263"/>
+      <c r="AO11" s="292"/>
+      <c r="AP11" s="294"/>
+      <c r="AQ11" s="296"/>
+      <c r="AR11" s="261"/>
+      <c r="AS11" s="275"/>
+      <c r="AT11" s="277"/>
+      <c r="AU11" s="279"/>
+      <c r="AV11" s="261"/>
+      <c r="AW11" s="275"/>
+      <c r="AX11" s="275"/>
+      <c r="AY11" s="279"/>
+      <c r="AZ11" s="261"/>
+      <c r="BA11" s="275"/>
+      <c r="BB11" s="275"/>
+      <c r="BC11" s="279"/>
+      <c r="BD11" s="261"/>
+      <c r="BE11" s="275"/>
+      <c r="BF11" s="275"/>
+      <c r="BG11" s="279"/>
+      <c r="BH11" s="261"/>
+      <c r="BI11" s="275"/>
+      <c r="BJ11" s="275"/>
+      <c r="BK11" s="279"/>
+      <c r="BL11" s="261"/>
+      <c r="BM11" s="275"/>
+      <c r="BN11" s="275"/>
+      <c r="BO11" s="279"/>
     </row>
     <row r="12" spans="1:69" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="281" t="s">
+      <c r="A12" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="281" t="s">
+      <c r="B12" s="240" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="196" t="s">
@@ -4870,86 +4870,86 @@
       <c r="M12" s="197"/>
       <c r="N12" s="197"/>
       <c r="O12" s="198"/>
-      <c r="P12" s="296" t="s">
+      <c r="P12" s="241" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="300">
+      <c r="R12" s="242">
         <v>43729</v>
       </c>
-      <c r="S12" s="289" t="s">
+      <c r="S12" s="243" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="306" t="s">
+      <c r="T12" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="276" t="s">
+      <c r="U12" s="257" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="300">
+      <c r="V12" s="242">
         <v>43744</v>
       </c>
-      <c r="W12" s="301" t="s">
+      <c r="W12" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="255"/>
-      <c r="Y12" s="248"/>
+      <c r="X12" s="254"/>
+      <c r="Y12" s="255"/>
       <c r="Z12" s="80"/>
-      <c r="AA12" s="249"/>
-      <c r="AB12" s="255"/>
-      <c r="AC12" s="248"/>
-      <c r="AD12" s="250"/>
-      <c r="AE12" s="249"/>
-      <c r="AF12" s="255"/>
-      <c r="AG12" s="248"/>
-      <c r="AH12" s="250"/>
-      <c r="AI12" s="249"/>
-      <c r="AJ12" s="255"/>
-      <c r="AK12" s="248"/>
-      <c r="AL12" s="265"/>
-      <c r="AM12" s="249"/>
-      <c r="AN12" s="255"/>
-      <c r="AO12" s="248"/>
-      <c r="AP12" s="250"/>
-      <c r="AQ12" s="249"/>
-      <c r="AR12" s="255"/>
-      <c r="AS12" s="248"/>
-      <c r="AT12" s="250"/>
-      <c r="AU12" s="249"/>
-      <c r="AV12" s="296" t="s">
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="254"/>
+      <c r="AC12" s="255"/>
+      <c r="AD12" s="252"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="254"/>
+      <c r="AG12" s="255"/>
+      <c r="AH12" s="252"/>
+      <c r="AI12" s="253"/>
+      <c r="AJ12" s="254"/>
+      <c r="AK12" s="255"/>
+      <c r="AL12" s="256"/>
+      <c r="AM12" s="253"/>
+      <c r="AN12" s="254"/>
+      <c r="AO12" s="255"/>
+      <c r="AP12" s="252"/>
+      <c r="AQ12" s="253"/>
+      <c r="AR12" s="254"/>
+      <c r="AS12" s="255"/>
+      <c r="AT12" s="252"/>
+      <c r="AU12" s="253"/>
+      <c r="AV12" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="AW12" s="281" t="s">
+      <c r="AW12" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="AX12" s="256">
+      <c r="AX12" s="286">
         <v>43786</v>
       </c>
-      <c r="AY12" s="268" t="s">
+      <c r="AY12" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="AZ12" s="255"/>
-      <c r="BA12" s="248"/>
-      <c r="BB12" s="248"/>
-      <c r="BC12" s="249"/>
-      <c r="BD12" s="255"/>
-      <c r="BE12" s="248"/>
-      <c r="BF12" s="248"/>
-      <c r="BG12" s="249"/>
-      <c r="BH12" s="255"/>
-      <c r="BI12" s="248"/>
-      <c r="BJ12" s="248"/>
-      <c r="BK12" s="249"/>
-      <c r="BL12" s="255"/>
-      <c r="BM12" s="248"/>
-      <c r="BN12" s="248"/>
-      <c r="BO12" s="249"/>
+      <c r="AZ12" s="254"/>
+      <c r="BA12" s="255"/>
+      <c r="BB12" s="255"/>
+      <c r="BC12" s="253"/>
+      <c r="BD12" s="254"/>
+      <c r="BE12" s="255"/>
+      <c r="BF12" s="255"/>
+      <c r="BG12" s="253"/>
+      <c r="BH12" s="254"/>
+      <c r="BI12" s="255"/>
+      <c r="BJ12" s="255"/>
+      <c r="BK12" s="253"/>
+      <c r="BL12" s="254"/>
+      <c r="BM12" s="255"/>
+      <c r="BN12" s="255"/>
+      <c r="BO12" s="253"/>
     </row>
     <row r="13" spans="1:69" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="281"/>
-      <c r="B13" s="281"/>
+      <c r="A13" s="240"/>
+      <c r="B13" s="240"/>
       <c r="C13" s="74" t="s">
         <v>56</v>
       </c>
@@ -4965,69 +4965,69 @@
       <c r="M13" s="197"/>
       <c r="N13" s="197"/>
       <c r="O13" s="198"/>
-      <c r="P13" s="296"/>
+      <c r="P13" s="241"/>
       <c r="Q13" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="300"/>
-      <c r="S13" s="289"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="276"/>
-      <c r="V13" s="300"/>
-      <c r="W13" s="301"/>
-      <c r="X13" s="255"/>
-      <c r="Y13" s="248"/>
+      <c r="R13" s="242"/>
+      <c r="S13" s="243"/>
+      <c r="T13" s="244"/>
+      <c r="U13" s="257"/>
+      <c r="V13" s="242"/>
+      <c r="W13" s="258"/>
+      <c r="X13" s="254"/>
+      <c r="Y13" s="255"/>
       <c r="Z13" s="80"/>
-      <c r="AA13" s="249"/>
-      <c r="AB13" s="255"/>
-      <c r="AC13" s="248"/>
-      <c r="AD13" s="250"/>
-      <c r="AE13" s="249"/>
-      <c r="AF13" s="255"/>
-      <c r="AG13" s="248"/>
-      <c r="AH13" s="250"/>
-      <c r="AI13" s="249"/>
-      <c r="AJ13" s="255"/>
-      <c r="AK13" s="248"/>
-      <c r="AL13" s="265"/>
-      <c r="AM13" s="249"/>
-      <c r="AN13" s="255"/>
-      <c r="AO13" s="248"/>
-      <c r="AP13" s="250"/>
-      <c r="AQ13" s="249"/>
-      <c r="AR13" s="255"/>
-      <c r="AS13" s="248"/>
-      <c r="AT13" s="250"/>
-      <c r="AU13" s="249"/>
-      <c r="AV13" s="296"/>
-      <c r="AW13" s="281"/>
-      <c r="AX13" s="256"/>
-      <c r="AY13" s="268"/>
-      <c r="AZ13" s="255"/>
-      <c r="BA13" s="248"/>
-      <c r="BB13" s="248"/>
-      <c r="BC13" s="249"/>
-      <c r="BD13" s="255"/>
-      <c r="BE13" s="248"/>
-      <c r="BF13" s="248"/>
-      <c r="BG13" s="249"/>
-      <c r="BH13" s="255"/>
-      <c r="BI13" s="248"/>
-      <c r="BJ13" s="248"/>
-      <c r="BK13" s="249"/>
-      <c r="BL13" s="255"/>
-      <c r="BM13" s="248"/>
-      <c r="BN13" s="248"/>
-      <c r="BO13" s="249"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="254"/>
+      <c r="AC13" s="255"/>
+      <c r="AD13" s="252"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="254"/>
+      <c r="AG13" s="255"/>
+      <c r="AH13" s="252"/>
+      <c r="AI13" s="253"/>
+      <c r="AJ13" s="254"/>
+      <c r="AK13" s="255"/>
+      <c r="AL13" s="256"/>
+      <c r="AM13" s="253"/>
+      <c r="AN13" s="254"/>
+      <c r="AO13" s="255"/>
+      <c r="AP13" s="252"/>
+      <c r="AQ13" s="253"/>
+      <c r="AR13" s="254"/>
+      <c r="AS13" s="255"/>
+      <c r="AT13" s="252"/>
+      <c r="AU13" s="253"/>
+      <c r="AV13" s="241"/>
+      <c r="AW13" s="240"/>
+      <c r="AX13" s="286"/>
+      <c r="AY13" s="259"/>
+      <c r="AZ13" s="254"/>
+      <c r="BA13" s="255"/>
+      <c r="BB13" s="255"/>
+      <c r="BC13" s="253"/>
+      <c r="BD13" s="254"/>
+      <c r="BE13" s="255"/>
+      <c r="BF13" s="255"/>
+      <c r="BG13" s="253"/>
+      <c r="BH13" s="254"/>
+      <c r="BI13" s="255"/>
+      <c r="BJ13" s="255"/>
+      <c r="BK13" s="253"/>
+      <c r="BL13" s="254"/>
+      <c r="BM13" s="255"/>
+      <c r="BN13" s="255"/>
+      <c r="BO13" s="253"/>
     </row>
     <row r="14" spans="1:69" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="257" t="s">
+      <c r="A14" s="262" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="259" t="s">
+      <c r="B14" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="279" t="s">
+      <c r="C14" s="266" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="192"/>
@@ -5042,16 +5042,16 @@
       <c r="M14" s="192"/>
       <c r="N14" s="192"/>
       <c r="O14" s="193"/>
-      <c r="P14" s="257" t="s">
+      <c r="P14" s="262" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="259" t="s">
+      <c r="Q14" s="264" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="271">
+      <c r="R14" s="297">
         <v>43729</v>
       </c>
-      <c r="S14" s="273" t="s">
+      <c r="S14" s="299" t="s">
         <v>19</v>
       </c>
       <c r="T14" s="201"/>
@@ -5078,53 +5078,53 @@
       <c r="AG14" s="202"/>
       <c r="AH14" s="122"/>
       <c r="AI14" s="119"/>
-      <c r="AJ14" s="237"/>
-      <c r="AK14" s="239"/>
-      <c r="AL14" s="241"/>
-      <c r="AM14" s="243"/>
-      <c r="AN14" s="237"/>
-      <c r="AO14" s="239"/>
-      <c r="AP14" s="241"/>
-      <c r="AQ14" s="243"/>
-      <c r="AR14" s="257" t="s">
+      <c r="AJ14" s="260"/>
+      <c r="AK14" s="274"/>
+      <c r="AL14" s="276"/>
+      <c r="AM14" s="278"/>
+      <c r="AN14" s="260"/>
+      <c r="AO14" s="274"/>
+      <c r="AP14" s="276"/>
+      <c r="AQ14" s="278"/>
+      <c r="AR14" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="AS14" s="259" t="s">
+      <c r="AS14" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="AT14" s="261">
+      <c r="AT14" s="293">
         <v>43779</v>
       </c>
-      <c r="AU14" s="263" t="s">
+      <c r="AU14" s="295" t="s">
         <v>18</v>
       </c>
       <c r="AV14" s="203"/>
       <c r="AW14" s="202"/>
       <c r="AX14" s="204"/>
-      <c r="AY14" s="243"/>
+      <c r="AY14" s="278"/>
       <c r="AZ14" s="203"/>
       <c r="BA14" s="202"/>
       <c r="BB14" s="204"/>
-      <c r="BC14" s="243"/>
+      <c r="BC14" s="278"/>
       <c r="BD14" s="203"/>
       <c r="BE14" s="202"/>
       <c r="BF14" s="204"/>
-      <c r="BG14" s="243"/>
+      <c r="BG14" s="278"/>
       <c r="BH14" s="203"/>
       <c r="BI14" s="202"/>
       <c r="BJ14" s="204"/>
-      <c r="BK14" s="243"/>
+      <c r="BK14" s="278"/>
       <c r="BL14" s="203"/>
       <c r="BM14" s="202"/>
       <c r="BN14" s="204"/>
-      <c r="BO14" s="243"/>
+      <c r="BO14" s="278"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="8"/>
     </row>
     <row r="15" spans="1:69" ht="63.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="258"/>
-      <c r="B15" s="260"/>
-      <c r="C15" s="280"/>
+      <c r="A15" s="263"/>
+      <c r="B15" s="265"/>
+      <c r="C15" s="267"/>
       <c r="D15" s="205"/>
       <c r="E15" s="185"/>
       <c r="F15" s="185"/>
@@ -5137,10 +5137,10 @@
       <c r="M15" s="185"/>
       <c r="N15" s="185"/>
       <c r="O15" s="186"/>
-      <c r="P15" s="258"/>
-      <c r="Q15" s="260"/>
-      <c r="R15" s="272"/>
-      <c r="S15" s="274"/>
+      <c r="P15" s="263"/>
+      <c r="Q15" s="265"/>
+      <c r="R15" s="298"/>
+      <c r="S15" s="300"/>
       <c r="T15" s="189"/>
       <c r="U15" s="190"/>
       <c r="V15" s="123"/>
@@ -5165,77 +5165,77 @@
       <c r="AG15" s="190"/>
       <c r="AH15" s="115"/>
       <c r="AI15" s="116"/>
-      <c r="AJ15" s="238"/>
-      <c r="AK15" s="240"/>
-      <c r="AL15" s="242"/>
-      <c r="AM15" s="244"/>
-      <c r="AN15" s="238"/>
-      <c r="AO15" s="240"/>
-      <c r="AP15" s="242"/>
-      <c r="AQ15" s="244"/>
-      <c r="AR15" s="258"/>
-      <c r="AS15" s="260"/>
-      <c r="AT15" s="262"/>
-      <c r="AU15" s="264"/>
+      <c r="AJ15" s="261"/>
+      <c r="AK15" s="275"/>
+      <c r="AL15" s="277"/>
+      <c r="AM15" s="279"/>
+      <c r="AN15" s="261"/>
+      <c r="AO15" s="275"/>
+      <c r="AP15" s="277"/>
+      <c r="AQ15" s="279"/>
+      <c r="AR15" s="263"/>
+      <c r="AS15" s="265"/>
+      <c r="AT15" s="294"/>
+      <c r="AU15" s="296"/>
       <c r="AV15" s="189"/>
       <c r="AW15" s="190"/>
       <c r="AX15" s="191"/>
-      <c r="AY15" s="244"/>
+      <c r="AY15" s="279"/>
       <c r="AZ15" s="189"/>
       <c r="BA15" s="190"/>
       <c r="BB15" s="191"/>
-      <c r="BC15" s="244"/>
+      <c r="BC15" s="279"/>
       <c r="BD15" s="189"/>
       <c r="BE15" s="190"/>
       <c r="BF15" s="191"/>
-      <c r="BG15" s="244"/>
+      <c r="BG15" s="279"/>
       <c r="BH15" s="189"/>
       <c r="BI15" s="190"/>
       <c r="BJ15" s="191"/>
-      <c r="BK15" s="244"/>
+      <c r="BK15" s="279"/>
       <c r="BL15" s="189"/>
       <c r="BM15" s="190"/>
       <c r="BN15" s="191"/>
-      <c r="BO15" s="244"/>
+      <c r="BO15" s="279"/>
     </row>
     <row r="16" spans="1:69" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="248" t="s">
+      <c r="A16" s="255" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="281" t="s">
+      <c r="B16" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="282" t="s">
+      <c r="C16" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="284"/>
-      <c r="E16" s="277"/>
-      <c r="F16" s="277"/>
-      <c r="G16" s="278"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="278"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="289"/>
+      <c r="F16" s="289"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="288"/>
+      <c r="I16" s="289"/>
+      <c r="J16" s="289"/>
+      <c r="K16" s="290"/>
       <c r="L16" s="208"/>
       <c r="M16" s="197"/>
       <c r="N16" s="197"/>
       <c r="O16" s="198"/>
-      <c r="P16" s="275" t="s">
+      <c r="P16" s="271" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="281" t="s">
+      <c r="Q16" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="256">
+      <c r="R16" s="286">
         <v>43729</v>
       </c>
-      <c r="S16" s="283" t="s">
+      <c r="S16" s="287" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="247"/>
-      <c r="U16" s="248"/>
-      <c r="V16" s="250"/>
-      <c r="W16" s="249"/>
+      <c r="T16" s="273"/>
+      <c r="U16" s="255"/>
+      <c r="V16" s="252"/>
+      <c r="W16" s="253"/>
       <c r="X16" s="85" t="s">
         <v>52</v>
       </c>
@@ -5264,55 +5264,55 @@
       <c r="AO16" s="210"/>
       <c r="AP16" s="80"/>
       <c r="AQ16" s="81"/>
-      <c r="AR16" s="247"/>
-      <c r="AS16" s="265"/>
-      <c r="AT16" s="265"/>
-      <c r="AU16" s="249"/>
-      <c r="AV16" s="247"/>
-      <c r="AW16" s="248"/>
-      <c r="AX16" s="248"/>
-      <c r="AY16" s="249"/>
-      <c r="AZ16" s="247"/>
-      <c r="BA16" s="248"/>
-      <c r="BB16" s="248"/>
-      <c r="BC16" s="249"/>
-      <c r="BD16" s="247"/>
-      <c r="BE16" s="248"/>
-      <c r="BF16" s="248"/>
-      <c r="BG16" s="249"/>
-      <c r="BH16" s="247"/>
-      <c r="BI16" s="248"/>
-      <c r="BJ16" s="248"/>
-      <c r="BK16" s="249"/>
-      <c r="BL16" s="247"/>
-      <c r="BM16" s="248"/>
-      <c r="BN16" s="248"/>
-      <c r="BO16" s="249"/>
+      <c r="AR16" s="273"/>
+      <c r="AS16" s="256"/>
+      <c r="AT16" s="256"/>
+      <c r="AU16" s="253"/>
+      <c r="AV16" s="273"/>
+      <c r="AW16" s="255"/>
+      <c r="AX16" s="255"/>
+      <c r="AY16" s="253"/>
+      <c r="AZ16" s="273"/>
+      <c r="BA16" s="255"/>
+      <c r="BB16" s="255"/>
+      <c r="BC16" s="253"/>
+      <c r="BD16" s="273"/>
+      <c r="BE16" s="255"/>
+      <c r="BF16" s="255"/>
+      <c r="BG16" s="253"/>
+      <c r="BH16" s="273"/>
+      <c r="BI16" s="255"/>
+      <c r="BJ16" s="255"/>
+      <c r="BK16" s="253"/>
+      <c r="BL16" s="273"/>
+      <c r="BM16" s="255"/>
+      <c r="BN16" s="255"/>
+      <c r="BO16" s="253"/>
     </row>
     <row r="17" spans="1:67" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="248"/>
-      <c r="B17" s="281"/>
-      <c r="C17" s="282"/>
-      <c r="D17" s="284"/>
-      <c r="E17" s="277"/>
-      <c r="F17" s="277"/>
-      <c r="G17" s="278"/>
-      <c r="H17" s="284"/>
-      <c r="I17" s="277"/>
-      <c r="J17" s="277"/>
-      <c r="K17" s="278"/>
+      <c r="A17" s="255"/>
+      <c r="B17" s="240"/>
+      <c r="C17" s="270"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="289"/>
+      <c r="F17" s="289"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="288"/>
+      <c r="I17" s="289"/>
+      <c r="J17" s="289"/>
+      <c r="K17" s="290"/>
       <c r="L17" s="197"/>
       <c r="M17" s="197"/>
       <c r="N17" s="197"/>
       <c r="O17" s="198"/>
-      <c r="P17" s="275"/>
-      <c r="Q17" s="281"/>
-      <c r="R17" s="256"/>
-      <c r="S17" s="283"/>
-      <c r="T17" s="247"/>
-      <c r="U17" s="248"/>
-      <c r="V17" s="250"/>
-      <c r="W17" s="249"/>
+      <c r="P17" s="271"/>
+      <c r="Q17" s="240"/>
+      <c r="R17" s="286"/>
+      <c r="S17" s="287"/>
+      <c r="T17" s="273"/>
+      <c r="U17" s="255"/>
+      <c r="V17" s="252"/>
+      <c r="W17" s="253"/>
       <c r="X17" s="86" t="s">
         <v>53</v>
       </c>
@@ -5341,30 +5341,30 @@
       <c r="AO17" s="210"/>
       <c r="AP17" s="80"/>
       <c r="AQ17" s="81"/>
-      <c r="AR17" s="247"/>
-      <c r="AS17" s="265"/>
-      <c r="AT17" s="265"/>
-      <c r="AU17" s="249"/>
-      <c r="AV17" s="247"/>
-      <c r="AW17" s="248"/>
-      <c r="AX17" s="248"/>
-      <c r="AY17" s="249"/>
-      <c r="AZ17" s="247"/>
-      <c r="BA17" s="248"/>
-      <c r="BB17" s="248"/>
-      <c r="BC17" s="249"/>
-      <c r="BD17" s="247"/>
-      <c r="BE17" s="248"/>
-      <c r="BF17" s="248"/>
-      <c r="BG17" s="249"/>
-      <c r="BH17" s="247"/>
-      <c r="BI17" s="248"/>
-      <c r="BJ17" s="248"/>
-      <c r="BK17" s="249"/>
-      <c r="BL17" s="247"/>
-      <c r="BM17" s="248"/>
-      <c r="BN17" s="248"/>
-      <c r="BO17" s="249"/>
+      <c r="AR17" s="273"/>
+      <c r="AS17" s="256"/>
+      <c r="AT17" s="256"/>
+      <c r="AU17" s="253"/>
+      <c r="AV17" s="273"/>
+      <c r="AW17" s="255"/>
+      <c r="AX17" s="255"/>
+      <c r="AY17" s="253"/>
+      <c r="AZ17" s="273"/>
+      <c r="BA17" s="255"/>
+      <c r="BB17" s="255"/>
+      <c r="BC17" s="253"/>
+      <c r="BD17" s="273"/>
+      <c r="BE17" s="255"/>
+      <c r="BF17" s="255"/>
+      <c r="BG17" s="253"/>
+      <c r="BH17" s="273"/>
+      <c r="BI17" s="255"/>
+      <c r="BJ17" s="255"/>
+      <c r="BK17" s="253"/>
+      <c r="BL17" s="273"/>
+      <c r="BM17" s="255"/>
+      <c r="BN17" s="255"/>
+      <c r="BO17" s="253"/>
     </row>
     <row r="18" spans="1:67" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="213" t="s">
@@ -5547,6 +5547,198 @@
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="AJ14:AJ15"/>
+    <mergeCell ref="AK14:AK15"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AM14:AM15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="BO14:BO15"/>
+    <mergeCell ref="BE12:BE13"/>
+    <mergeCell ref="BF12:BF13"/>
+    <mergeCell ref="BG12:BG13"/>
+    <mergeCell ref="AZ12:AZ13"/>
+    <mergeCell ref="BA12:BA13"/>
+    <mergeCell ref="BB12:BB13"/>
+    <mergeCell ref="BC12:BC13"/>
+    <mergeCell ref="BC14:BC15"/>
+    <mergeCell ref="AK10:AK11"/>
+    <mergeCell ref="AL10:AL11"/>
+    <mergeCell ref="AM10:AM11"/>
+    <mergeCell ref="AV10:AV11"/>
+    <mergeCell ref="AW10:AW11"/>
+    <mergeCell ref="AX10:AX11"/>
+    <mergeCell ref="AY10:AY11"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BM16:BM17"/>
+    <mergeCell ref="BN16:BN17"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="BH12:BH13"/>
+    <mergeCell ref="BI12:BI13"/>
+    <mergeCell ref="BJ12:BJ13"/>
+    <mergeCell ref="BK12:BK13"/>
+    <mergeCell ref="BK14:BK15"/>
+    <mergeCell ref="BH16:BH17"/>
+    <mergeCell ref="BI16:BI17"/>
+    <mergeCell ref="BJ16:BJ17"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="BG14:BG15"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BE16:BE17"/>
+    <mergeCell ref="BF16:BF17"/>
+    <mergeCell ref="BG16:BG17"/>
+    <mergeCell ref="BD12:BD13"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BL10:BL11"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="BN10:BN11"/>
+    <mergeCell ref="BO10:BO11"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="BN12:BN13"/>
+    <mergeCell ref="BO12:BO13"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BH10:BH11"/>
+    <mergeCell ref="BI10:BI11"/>
+    <mergeCell ref="BJ10:BJ11"/>
+    <mergeCell ref="BK10:BK11"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD10:BD11"/>
+    <mergeCell ref="BE10:BE11"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BG10:BG11"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="BA10:BA11"/>
+    <mergeCell ref="BB10:BB11"/>
+    <mergeCell ref="BC10:BC11"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AT10:AT11"/>
+    <mergeCell ref="AU10:AU11"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="AA12:AA13"/>
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="A12:A13"/>
@@ -5571,198 +5763,6 @@
     <mergeCell ref="AK12:AK13"/>
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AM12:AM13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="AT10:AT11"/>
-    <mergeCell ref="AU10:AU11"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AS16:AS17"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="BA10:BA11"/>
-    <mergeCell ref="BB10:BB11"/>
-    <mergeCell ref="BC10:BC11"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BH10:BH11"/>
-    <mergeCell ref="BI10:BI11"/>
-    <mergeCell ref="BJ10:BJ11"/>
-    <mergeCell ref="BK10:BK11"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD10:BD11"/>
-    <mergeCell ref="BE10:BE11"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="BG10:BG11"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BL10:BL11"/>
-    <mergeCell ref="BM10:BM11"/>
-    <mergeCell ref="BN10:BN11"/>
-    <mergeCell ref="BO10:BO11"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BM12:BM13"/>
-    <mergeCell ref="BN12:BN13"/>
-    <mergeCell ref="BO12:BO13"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BM16:BM17"/>
-    <mergeCell ref="BN16:BN17"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="BH12:BH13"/>
-    <mergeCell ref="BI12:BI13"/>
-    <mergeCell ref="BJ12:BJ13"/>
-    <mergeCell ref="BK12:BK13"/>
-    <mergeCell ref="BK14:BK15"/>
-    <mergeCell ref="BH16:BH17"/>
-    <mergeCell ref="BI16:BI17"/>
-    <mergeCell ref="BJ16:BJ17"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="BG14:BG15"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="BE16:BE17"/>
-    <mergeCell ref="BF16:BF17"/>
-    <mergeCell ref="BG16:BG17"/>
-    <mergeCell ref="BD12:BD13"/>
-    <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AJ14:AJ15"/>
-    <mergeCell ref="AK14:AK15"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AM14:AM15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="BO14:BO15"/>
-    <mergeCell ref="BE12:BE13"/>
-    <mergeCell ref="BF12:BF13"/>
-    <mergeCell ref="BG12:BG13"/>
-    <mergeCell ref="AZ12:AZ13"/>
-    <mergeCell ref="BA12:BA13"/>
-    <mergeCell ref="BB12:BB13"/>
-    <mergeCell ref="BC12:BC13"/>
-    <mergeCell ref="BC14:BC15"/>
-    <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AL10:AL11"/>
-    <mergeCell ref="AM10:AM11"/>
-    <mergeCell ref="AV10:AV11"/>
-    <mergeCell ref="AW10:AW11"/>
-    <mergeCell ref="AX10:AX11"/>
-    <mergeCell ref="AY10:AY11"/>
   </mergeCells>
   <conditionalFormatting sqref="W12 AA9:AA10 AE9:AE10 AI9 AM12 W15:W16 AA15 AE15:AE17 AI15:AI19 AM16:AM17 AI12 AM19 AE19 S8 S12 S10 AA12 AE12 AA17:AA19 W18:W19 S18:S19 S16 S14 AQ12 AQ16:AQ19 AU16 AY10 AY16 AY14">
     <cfRule type="containsText" dxfId="112" priority="176" operator="containsText" text="o">
@@ -6709,62 +6709,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="327" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="325" t="s">
+      <c r="B1" s="329" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="309" t="s">
+      <c r="C1" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="251" t="s">
+      <c r="D1" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="252"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="302" t="s">
+      <c r="E1" s="237"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="303"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="251" t="s">
+      <c r="I1" s="233"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="252"/>
-      <c r="N1" s="253"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="302" t="s">
+      <c r="M1" s="237"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="232" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="303"/>
-      <c r="R1" s="304"/>
-      <c r="S1" s="305"/>
-      <c r="T1" s="251" t="s">
+      <c r="Q1" s="233"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="235"/>
+      <c r="T1" s="236" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="252"/>
-      <c r="V1" s="253"/>
-      <c r="W1" s="254"/>
-      <c r="X1" s="302" t="s">
+      <c r="U1" s="237"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="239"/>
+      <c r="X1" s="232" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" s="303"/>
-      <c r="Z1" s="304"/>
-      <c r="AA1" s="305"/>
-      <c r="AB1" s="251" t="s">
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="234"/>
+      <c r="AA1" s="235"/>
+      <c r="AB1" s="236" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="252"/>
-      <c r="AD1" s="253"/>
-      <c r="AE1" s="254"/>
+      <c r="AC1" s="237"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="239"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="324"/>
-      <c r="B2" s="326"/>
-      <c r="C2" s="327"/>
+      <c r="A2" s="328"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="331"/>
       <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
@@ -7087,104 +7087,104 @@
       <c r="AE6" s="62"/>
     </row>
     <row r="7" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="328" t="s">
+      <c r="A7" s="332" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="330" t="s">
+      <c r="B7" s="315" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="330" t="s">
+      <c r="D7" s="315" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="342">
+      <c r="F7" s="323">
         <v>43729</v>
       </c>
-      <c r="G7" s="336" t="s">
+      <c r="G7" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="338" t="s">
+      <c r="H7" s="319" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="340" t="s">
+      <c r="I7" s="321" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="342">
+      <c r="J7" s="323">
         <v>43744</v>
       </c>
-      <c r="K7" s="315" t="s">
+      <c r="K7" s="338" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="321"/>
-      <c r="M7" s="317"/>
+      <c r="L7" s="344"/>
+      <c r="M7" s="340"/>
       <c r="N7" s="60"/>
-      <c r="O7" s="319"/>
-      <c r="P7" s="321"/>
-      <c r="Q7" s="317"/>
-      <c r="R7" s="344"/>
-      <c r="S7" s="319"/>
-      <c r="T7" s="330" t="s">
+      <c r="O7" s="342"/>
+      <c r="P7" s="344"/>
+      <c r="Q7" s="340"/>
+      <c r="R7" s="325"/>
+      <c r="S7" s="342"/>
+      <c r="T7" s="315" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="311" t="s">
+      <c r="U7" s="334" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="332">
+      <c r="V7" s="311">
         <v>43779</v>
       </c>
-      <c r="W7" s="313" t="s">
+      <c r="W7" s="336" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="321"/>
-      <c r="Y7" s="317"/>
-      <c r="Z7" s="334"/>
-      <c r="AA7" s="319"/>
-      <c r="AB7" s="321"/>
-      <c r="AC7" s="317"/>
+      <c r="X7" s="344"/>
+      <c r="Y7" s="340"/>
+      <c r="Z7" s="313"/>
+      <c r="AA7" s="342"/>
+      <c r="AB7" s="344"/>
+      <c r="AC7" s="340"/>
       <c r="AD7" s="144"/>
-      <c r="AE7" s="319"/>
+      <c r="AE7" s="342"/>
     </row>
     <row r="8" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="329"/>
-      <c r="B8" s="331"/>
+      <c r="A8" s="333"/>
+      <c r="B8" s="316"/>
       <c r="C8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="331"/>
+      <c r="D8" s="316"/>
       <c r="E8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="343"/>
-      <c r="G8" s="337"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="341"/>
-      <c r="J8" s="343"/>
-      <c r="K8" s="316"/>
-      <c r="L8" s="322"/>
-      <c r="M8" s="318"/>
+      <c r="F8" s="324"/>
+      <c r="G8" s="318"/>
+      <c r="H8" s="320"/>
+      <c r="I8" s="322"/>
+      <c r="J8" s="324"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="345"/>
+      <c r="M8" s="341"/>
       <c r="N8" s="61"/>
-      <c r="O8" s="320"/>
-      <c r="P8" s="322"/>
-      <c r="Q8" s="318"/>
-      <c r="R8" s="345"/>
-      <c r="S8" s="320"/>
-      <c r="T8" s="331"/>
-      <c r="U8" s="312"/>
-      <c r="V8" s="333"/>
-      <c r="W8" s="314"/>
-      <c r="X8" s="322"/>
-      <c r="Y8" s="318"/>
-      <c r="Z8" s="335"/>
-      <c r="AA8" s="320"/>
-      <c r="AB8" s="322"/>
-      <c r="AC8" s="318"/>
+      <c r="O8" s="343"/>
+      <c r="P8" s="345"/>
+      <c r="Q8" s="341"/>
+      <c r="R8" s="326"/>
+      <c r="S8" s="343"/>
+      <c r="T8" s="316"/>
+      <c r="U8" s="335"/>
+      <c r="V8" s="312"/>
+      <c r="W8" s="337"/>
+      <c r="X8" s="345"/>
+      <c r="Y8" s="341"/>
+      <c r="Z8" s="314"/>
+      <c r="AA8" s="343"/>
+      <c r="AB8" s="345"/>
+      <c r="AC8" s="341"/>
       <c r="AD8" s="79"/>
-      <c r="AE8" s="320"/>
+      <c r="AE8" s="343"/>
     </row>
     <row r="9" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="181" t="s">
@@ -7437,6 +7437,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="Z7:Z8"/>
     <mergeCell ref="D1:G1"/>
@@ -7453,27 +7474,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="Y7:Y8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G7 K5:K7 O5:O7 AA5:AA7 AE5:AE7 G9:G12 K9:K12 O9:O12 S9:S12 W9:W12 AA9:AA12 AE9:AE12 S3:S7 W3:W7">
     <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="o">

--- a/data_processing_steps.xlsx
+++ b/data_processing_steps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine\Documents\UIUC\Fall 2019\IS590 Open Data Mashups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA16D5F-55D4-4A35-B073-85BE2160D993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DECB604-19AF-444E-99E2-008F9773909A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1E36DA5-FFFD-4359-9E29-B86FE11CC262}"/>
   </bookViews>
@@ -1853,6 +1853,192 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1865,28 +2051,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1913,194 +2090,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2108,6 +2153,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2137,63 +2194,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3648,10 +3648,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF1F6EB-64C8-4C19-8A8E-6958FD45B7F2}">
   <dimension ref="A1:BQ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="54" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AI1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="AP6" sqref="AP6"/>
+      <selection pane="topRight" activeCell="AQ10" sqref="AQ10:AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3714,116 +3714,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" s="182" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="304" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="245" t="s">
+      <c r="B1" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="247" t="s">
+      <c r="C1" s="306" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="249" t="s">
+      <c r="D1" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="249" t="s">
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="308" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="249" t="s">
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="250"/>
-      <c r="N1" s="250"/>
-      <c r="O1" s="251"/>
-      <c r="P1" s="236" t="s">
+      <c r="M1" s="309"/>
+      <c r="N1" s="309"/>
+      <c r="O1" s="310"/>
+      <c r="P1" s="252" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="237"/>
-      <c r="R1" s="238"/>
-      <c r="S1" s="239"/>
-      <c r="T1" s="232" t="s">
+      <c r="Q1" s="253"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="255"/>
+      <c r="T1" s="294" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="233"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="235"/>
-      <c r="X1" s="236" t="s">
+      <c r="U1" s="295"/>
+      <c r="V1" s="296"/>
+      <c r="W1" s="297"/>
+      <c r="X1" s="252" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="239"/>
-      <c r="AB1" s="232" t="s">
+      <c r="Y1" s="253"/>
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="255"/>
+      <c r="AB1" s="294" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="233"/>
-      <c r="AD1" s="234"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="236" t="s">
+      <c r="AC1" s="295"/>
+      <c r="AD1" s="296"/>
+      <c r="AE1" s="297"/>
+      <c r="AF1" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="237"/>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
-      <c r="AJ1" s="232" t="s">
+      <c r="AG1" s="253"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="255"/>
+      <c r="AJ1" s="294" t="s">
         <v>82</v>
       </c>
-      <c r="AK1" s="233"/>
-      <c r="AL1" s="234"/>
-      <c r="AM1" s="235"/>
-      <c r="AN1" s="236" t="s">
+      <c r="AK1" s="295"/>
+      <c r="AL1" s="296"/>
+      <c r="AM1" s="297"/>
+      <c r="AN1" s="252" t="s">
         <v>83</v>
       </c>
-      <c r="AO1" s="237"/>
-      <c r="AP1" s="238"/>
-      <c r="AQ1" s="239"/>
-      <c r="AR1" s="236" t="s">
+      <c r="AO1" s="253"/>
+      <c r="AP1" s="254"/>
+      <c r="AQ1" s="255"/>
+      <c r="AR1" s="252" t="s">
         <v>84</v>
       </c>
-      <c r="AS1" s="237"/>
-      <c r="AT1" s="238"/>
-      <c r="AU1" s="239"/>
-      <c r="AV1" s="236" t="s">
+      <c r="AS1" s="253"/>
+      <c r="AT1" s="254"/>
+      <c r="AU1" s="255"/>
+      <c r="AV1" s="252" t="s">
         <v>85</v>
       </c>
-      <c r="AW1" s="237"/>
-      <c r="AX1" s="238"/>
-      <c r="AY1" s="239"/>
-      <c r="AZ1" s="236" t="s">
+      <c r="AW1" s="253"/>
+      <c r="AX1" s="254"/>
+      <c r="AY1" s="255"/>
+      <c r="AZ1" s="252" t="s">
         <v>95</v>
       </c>
-      <c r="BA1" s="237"/>
-      <c r="BB1" s="238"/>
-      <c r="BC1" s="239"/>
-      <c r="BD1" s="236" t="s">
+      <c r="BA1" s="253"/>
+      <c r="BB1" s="254"/>
+      <c r="BC1" s="255"/>
+      <c r="BD1" s="252" t="s">
         <v>96</v>
       </c>
-      <c r="BE1" s="237"/>
-      <c r="BF1" s="238"/>
-      <c r="BG1" s="239"/>
-      <c r="BH1" s="236" t="s">
+      <c r="BE1" s="253"/>
+      <c r="BF1" s="254"/>
+      <c r="BG1" s="255"/>
+      <c r="BH1" s="252" t="s">
         <v>97</v>
       </c>
-      <c r="BI1" s="237"/>
-      <c r="BJ1" s="238"/>
-      <c r="BK1" s="239"/>
-      <c r="BL1" s="236" t="s">
+      <c r="BI1" s="253"/>
+      <c r="BJ1" s="254"/>
+      <c r="BK1" s="255"/>
+      <c r="BL1" s="252" t="s">
         <v>98</v>
       </c>
-      <c r="BM1" s="237"/>
-      <c r="BN1" s="238"/>
-      <c r="BO1" s="239"/>
+      <c r="BM1" s="253"/>
+      <c r="BN1" s="254"/>
+      <c r="BO1" s="255"/>
     </row>
     <row r="2" spans="1:69" s="182" customFormat="1" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="246"/>
-      <c r="B2" s="246"/>
-      <c r="C2" s="248"/>
+      <c r="A2" s="305"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="307"/>
       <c r="D2" s="131" t="s">
         <v>0</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>43772</v>
       </c>
       <c r="AQ3" s="160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR3" s="172" t="s">
         <v>93</v>
@@ -4149,7 +4149,7 @@
       </c>
     </row>
     <row r="4" spans="1:69" s="184" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="309" t="s">
+      <c r="A4" s="245" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="139"/>
@@ -4186,9 +4186,9 @@
       <c r="AG4" s="98"/>
       <c r="AH4" s="80"/>
       <c r="AI4" s="162"/>
-      <c r="AJ4" s="280"/>
-      <c r="AK4" s="282"/>
-      <c r="AL4" s="308"/>
+      <c r="AJ4" s="232"/>
+      <c r="AK4" s="236"/>
+      <c r="AL4" s="234"/>
       <c r="AM4" s="140"/>
       <c r="AN4" s="99"/>
       <c r="AO4" s="98"/>
@@ -4238,7 +4238,7 @@
       </c>
     </row>
     <row r="5" spans="1:69" s="184" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="310"/>
+      <c r="A5" s="246"/>
       <c r="B5" s="139"/>
       <c r="C5" s="140"/>
       <c r="D5" s="93"/>
@@ -4273,9 +4273,9 @@
       <c r="AG5" s="98"/>
       <c r="AH5" s="80"/>
       <c r="AI5" s="146"/>
-      <c r="AJ5" s="281"/>
-      <c r="AK5" s="283"/>
-      <c r="AL5" s="283"/>
+      <c r="AJ5" s="233"/>
+      <c r="AK5" s="235"/>
+      <c r="AL5" s="235"/>
       <c r="AM5" s="140"/>
       <c r="AN5" s="99"/>
       <c r="AO5" s="98"/>
@@ -4497,13 +4497,13 @@
       <c r="BO7" s="103"/>
     </row>
     <row r="8" spans="1:69" s="184" customFormat="1" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="240" t="s">
+      <c r="A8" s="277" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="270" t="s">
+      <c r="C8" s="278" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="93"/>
@@ -4518,22 +4518,22 @@
       <c r="M8" s="94"/>
       <c r="N8" s="94"/>
       <c r="O8" s="95"/>
-      <c r="P8" s="271" t="s">
+      <c r="P8" s="279" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="272" t="s">
+      <c r="Q8" s="293" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="286">
+      <c r="R8" s="271">
         <v>43729</v>
       </c>
-      <c r="S8" s="243" t="s">
+      <c r="S8" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="303"/>
-      <c r="U8" s="304"/>
-      <c r="V8" s="252"/>
-      <c r="W8" s="305"/>
+      <c r="T8" s="267"/>
+      <c r="U8" s="268"/>
+      <c r="V8" s="251"/>
+      <c r="W8" s="269"/>
       <c r="X8" s="85" t="s">
         <v>57</v>
       </c>
@@ -4554,26 +4554,26 @@
       <c r="AG8" s="98"/>
       <c r="AH8" s="100"/>
       <c r="AI8" s="81"/>
-      <c r="AJ8" s="273"/>
-      <c r="AK8" s="255"/>
-      <c r="AL8" s="252"/>
-      <c r="AM8" s="253"/>
-      <c r="AN8" s="271" t="s">
+      <c r="AJ8" s="250"/>
+      <c r="AK8" s="247"/>
+      <c r="AL8" s="251"/>
+      <c r="AM8" s="248"/>
+      <c r="AN8" s="279" t="s">
         <v>54</v>
       </c>
-      <c r="AO8" s="257" t="s">
+      <c r="AO8" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="AP8" s="307">
+      <c r="AP8" s="273">
         <v>43772</v>
       </c>
-      <c r="AQ8" s="259" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR8" s="273"/>
-      <c r="AS8" s="256"/>
-      <c r="AT8" s="256"/>
-      <c r="AU8" s="253"/>
+      <c r="AQ8" s="274" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR8" s="250"/>
+      <c r="AS8" s="264"/>
+      <c r="AT8" s="264"/>
+      <c r="AU8" s="248"/>
       <c r="AV8" s="99"/>
       <c r="AW8" s="98"/>
       <c r="AX8" s="100"/>
@@ -4596,9 +4596,9 @@
       <c r="BO8" s="140"/>
     </row>
     <row r="9" spans="1:69" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="265"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="267"/>
+      <c r="A9" s="259"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="276"/>
       <c r="D9" s="185"/>
       <c r="E9" s="185"/>
       <c r="F9" s="185"/>
@@ -4611,14 +4611,14 @@
       <c r="M9" s="185"/>
       <c r="N9" s="185"/>
       <c r="O9" s="186"/>
-      <c r="P9" s="263"/>
-      <c r="Q9" s="269"/>
-      <c r="R9" s="298"/>
-      <c r="S9" s="302"/>
-      <c r="T9" s="281"/>
-      <c r="U9" s="283"/>
-      <c r="V9" s="277"/>
-      <c r="W9" s="285"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="292"/>
+      <c r="R9" s="272"/>
+      <c r="S9" s="266"/>
+      <c r="T9" s="233"/>
+      <c r="U9" s="235"/>
+      <c r="V9" s="242"/>
+      <c r="W9" s="270"/>
       <c r="X9" s="187" t="s">
         <v>27</v>
       </c>
@@ -4639,18 +4639,18 @@
       <c r="AG9" s="190"/>
       <c r="AH9" s="115"/>
       <c r="AI9" s="116"/>
-      <c r="AJ9" s="261"/>
-      <c r="AK9" s="275"/>
-      <c r="AL9" s="277"/>
-      <c r="AM9" s="279"/>
-      <c r="AN9" s="263"/>
-      <c r="AO9" s="292"/>
-      <c r="AP9" s="294"/>
-      <c r="AQ9" s="296"/>
-      <c r="AR9" s="261"/>
-      <c r="AS9" s="306"/>
-      <c r="AT9" s="306"/>
-      <c r="AU9" s="279"/>
+      <c r="AJ9" s="238"/>
+      <c r="AK9" s="240"/>
+      <c r="AL9" s="242"/>
+      <c r="AM9" s="244"/>
+      <c r="AN9" s="257"/>
+      <c r="AO9" s="281"/>
+      <c r="AP9" s="261"/>
+      <c r="AQ9" s="263"/>
+      <c r="AR9" s="238"/>
+      <c r="AS9" s="300"/>
+      <c r="AT9" s="300"/>
+      <c r="AU9" s="244"/>
       <c r="AV9" s="189"/>
       <c r="AW9" s="190"/>
       <c r="AX9" s="191"/>
@@ -4673,13 +4673,13 @@
       <c r="BO9" s="116"/>
     </row>
     <row r="10" spans="1:69" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="262" t="s">
+      <c r="A10" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="264" t="s">
+      <c r="B10" s="258" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="266" t="s">
+      <c r="C10" s="275" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="192"/>
@@ -4694,30 +4694,30 @@
       <c r="M10" s="192"/>
       <c r="N10" s="192"/>
       <c r="O10" s="193"/>
-      <c r="P10" s="262" t="s">
+      <c r="P10" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="268" t="s">
+      <c r="Q10" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="297">
+      <c r="R10" s="282">
         <v>43729</v>
       </c>
-      <c r="S10" s="301" t="s">
+      <c r="S10" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="280"/>
-      <c r="U10" s="282"/>
-      <c r="V10" s="276"/>
-      <c r="W10" s="284"/>
-      <c r="X10" s="260"/>
-      <c r="Y10" s="274"/>
-      <c r="Z10" s="276"/>
-      <c r="AA10" s="278"/>
-      <c r="AB10" s="260"/>
-      <c r="AC10" s="274"/>
-      <c r="AD10" s="276"/>
-      <c r="AE10" s="278"/>
+      <c r="T10" s="232"/>
+      <c r="U10" s="236"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="290"/>
+      <c r="X10" s="237"/>
+      <c r="Y10" s="239"/>
+      <c r="Z10" s="241"/>
+      <c r="AA10" s="243"/>
+      <c r="AB10" s="237"/>
+      <c r="AC10" s="239"/>
+      <c r="AD10" s="241"/>
+      <c r="AE10" s="243"/>
       <c r="AF10" s="194" t="s">
         <v>50</v>
       </c>
@@ -4730,51 +4730,51 @@
       <c r="AI10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="AJ10" s="260"/>
-      <c r="AK10" s="274"/>
-      <c r="AL10" s="276"/>
-      <c r="AM10" s="278"/>
-      <c r="AN10" s="262" t="s">
+      <c r="AJ10" s="237"/>
+      <c r="AK10" s="239"/>
+      <c r="AL10" s="241"/>
+      <c r="AM10" s="243"/>
+      <c r="AN10" s="256" t="s">
         <v>54</v>
       </c>
-      <c r="AO10" s="291" t="s">
+      <c r="AO10" s="280" t="s">
         <v>48</v>
       </c>
-      <c r="AP10" s="293">
+      <c r="AP10" s="260">
         <v>43772</v>
       </c>
-      <c r="AQ10" s="295" t="s">
+      <c r="AQ10" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="AR10" s="260"/>
-      <c r="AS10" s="274"/>
-      <c r="AT10" s="276"/>
-      <c r="AU10" s="278"/>
-      <c r="AV10" s="260"/>
-      <c r="AW10" s="274"/>
-      <c r="AX10" s="274"/>
-      <c r="AY10" s="278"/>
-      <c r="AZ10" s="260"/>
-      <c r="BA10" s="274"/>
-      <c r="BB10" s="274"/>
-      <c r="BC10" s="278"/>
-      <c r="BD10" s="260"/>
-      <c r="BE10" s="274"/>
-      <c r="BF10" s="274"/>
-      <c r="BG10" s="278"/>
-      <c r="BH10" s="260"/>
-      <c r="BI10" s="274"/>
-      <c r="BJ10" s="274"/>
-      <c r="BK10" s="278"/>
-      <c r="BL10" s="260"/>
-      <c r="BM10" s="274"/>
-      <c r="BN10" s="274"/>
-      <c r="BO10" s="278"/>
+      <c r="AR10" s="237"/>
+      <c r="AS10" s="239"/>
+      <c r="AT10" s="241"/>
+      <c r="AU10" s="243"/>
+      <c r="AV10" s="237"/>
+      <c r="AW10" s="239"/>
+      <c r="AX10" s="239"/>
+      <c r="AY10" s="243"/>
+      <c r="AZ10" s="237"/>
+      <c r="BA10" s="239"/>
+      <c r="BB10" s="239"/>
+      <c r="BC10" s="243"/>
+      <c r="BD10" s="237"/>
+      <c r="BE10" s="239"/>
+      <c r="BF10" s="239"/>
+      <c r="BG10" s="243"/>
+      <c r="BH10" s="237"/>
+      <c r="BI10" s="239"/>
+      <c r="BJ10" s="239"/>
+      <c r="BK10" s="243"/>
+      <c r="BL10" s="237"/>
+      <c r="BM10" s="239"/>
+      <c r="BN10" s="239"/>
+      <c r="BO10" s="243"/>
     </row>
     <row r="11" spans="1:69" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="263"/>
-      <c r="B11" s="265"/>
-      <c r="C11" s="267"/>
+      <c r="A11" s="257"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="276"/>
       <c r="D11" s="185"/>
       <c r="E11" s="185"/>
       <c r="F11" s="185"/>
@@ -4787,22 +4787,22 @@
       <c r="M11" s="185"/>
       <c r="N11" s="185"/>
       <c r="O11" s="186"/>
-      <c r="P11" s="263"/>
-      <c r="Q11" s="269"/>
-      <c r="R11" s="298"/>
-      <c r="S11" s="302"/>
-      <c r="T11" s="281"/>
-      <c r="U11" s="283"/>
-      <c r="V11" s="277"/>
-      <c r="W11" s="285"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="275"/>
-      <c r="Z11" s="277"/>
-      <c r="AA11" s="279"/>
-      <c r="AB11" s="261"/>
-      <c r="AC11" s="275"/>
-      <c r="AD11" s="277"/>
-      <c r="AE11" s="279"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="292"/>
+      <c r="R11" s="272"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="233"/>
+      <c r="U11" s="235"/>
+      <c r="V11" s="242"/>
+      <c r="W11" s="270"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="240"/>
+      <c r="Z11" s="242"/>
+      <c r="AA11" s="244"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="240"/>
+      <c r="AD11" s="242"/>
+      <c r="AE11" s="244"/>
       <c r="AF11" s="187" t="s">
         <v>53</v>
       </c>
@@ -4815,44 +4815,44 @@
       <c r="AI11" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AJ11" s="261"/>
-      <c r="AK11" s="275"/>
-      <c r="AL11" s="277"/>
-      <c r="AM11" s="279"/>
-      <c r="AN11" s="263"/>
-      <c r="AO11" s="292"/>
-      <c r="AP11" s="294"/>
-      <c r="AQ11" s="296"/>
-      <c r="AR11" s="261"/>
-      <c r="AS11" s="275"/>
-      <c r="AT11" s="277"/>
-      <c r="AU11" s="279"/>
-      <c r="AV11" s="261"/>
-      <c r="AW11" s="275"/>
-      <c r="AX11" s="275"/>
-      <c r="AY11" s="279"/>
-      <c r="AZ11" s="261"/>
-      <c r="BA11" s="275"/>
-      <c r="BB11" s="275"/>
-      <c r="BC11" s="279"/>
-      <c r="BD11" s="261"/>
-      <c r="BE11" s="275"/>
-      <c r="BF11" s="275"/>
-      <c r="BG11" s="279"/>
-      <c r="BH11" s="261"/>
-      <c r="BI11" s="275"/>
-      <c r="BJ11" s="275"/>
-      <c r="BK11" s="279"/>
-      <c r="BL11" s="261"/>
-      <c r="BM11" s="275"/>
-      <c r="BN11" s="275"/>
-      <c r="BO11" s="279"/>
+      <c r="AJ11" s="238"/>
+      <c r="AK11" s="240"/>
+      <c r="AL11" s="242"/>
+      <c r="AM11" s="244"/>
+      <c r="AN11" s="257"/>
+      <c r="AO11" s="281"/>
+      <c r="AP11" s="261"/>
+      <c r="AQ11" s="263"/>
+      <c r="AR11" s="238"/>
+      <c r="AS11" s="240"/>
+      <c r="AT11" s="242"/>
+      <c r="AU11" s="244"/>
+      <c r="AV11" s="238"/>
+      <c r="AW11" s="240"/>
+      <c r="AX11" s="240"/>
+      <c r="AY11" s="244"/>
+      <c r="AZ11" s="238"/>
+      <c r="BA11" s="240"/>
+      <c r="BB11" s="240"/>
+      <c r="BC11" s="244"/>
+      <c r="BD11" s="238"/>
+      <c r="BE11" s="240"/>
+      <c r="BF11" s="240"/>
+      <c r="BG11" s="244"/>
+      <c r="BH11" s="238"/>
+      <c r="BI11" s="240"/>
+      <c r="BJ11" s="240"/>
+      <c r="BK11" s="244"/>
+      <c r="BL11" s="238"/>
+      <c r="BM11" s="240"/>
+      <c r="BN11" s="240"/>
+      <c r="BO11" s="244"/>
     </row>
     <row r="12" spans="1:69" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="240" t="s">
+      <c r="A12" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="240" t="s">
+      <c r="B12" s="277" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="196" t="s">
@@ -4870,86 +4870,86 @@
       <c r="M12" s="197"/>
       <c r="N12" s="197"/>
       <c r="O12" s="198"/>
-      <c r="P12" s="241" t="s">
+      <c r="P12" s="298" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="242">
+      <c r="R12" s="301">
         <v>43729</v>
       </c>
-      <c r="S12" s="243" t="s">
+      <c r="S12" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="244" t="s">
+      <c r="T12" s="303" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="257" t="s">
+      <c r="U12" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="242">
+      <c r="V12" s="301">
         <v>43744</v>
       </c>
-      <c r="W12" s="258" t="s">
+      <c r="W12" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="254"/>
-      <c r="Y12" s="255"/>
+      <c r="X12" s="249"/>
+      <c r="Y12" s="247"/>
       <c r="Z12" s="80"/>
-      <c r="AA12" s="253"/>
-      <c r="AB12" s="254"/>
-      <c r="AC12" s="255"/>
-      <c r="AD12" s="252"/>
-      <c r="AE12" s="253"/>
-      <c r="AF12" s="254"/>
-      <c r="AG12" s="255"/>
-      <c r="AH12" s="252"/>
-      <c r="AI12" s="253"/>
-      <c r="AJ12" s="254"/>
-      <c r="AK12" s="255"/>
-      <c r="AL12" s="256"/>
-      <c r="AM12" s="253"/>
-      <c r="AN12" s="254"/>
-      <c r="AO12" s="255"/>
-      <c r="AP12" s="252"/>
-      <c r="AQ12" s="253"/>
-      <c r="AR12" s="254"/>
-      <c r="AS12" s="255"/>
-      <c r="AT12" s="252"/>
-      <c r="AU12" s="253"/>
-      <c r="AV12" s="241" t="s">
+      <c r="AA12" s="248"/>
+      <c r="AB12" s="249"/>
+      <c r="AC12" s="247"/>
+      <c r="AD12" s="251"/>
+      <c r="AE12" s="248"/>
+      <c r="AF12" s="249"/>
+      <c r="AG12" s="247"/>
+      <c r="AH12" s="251"/>
+      <c r="AI12" s="248"/>
+      <c r="AJ12" s="249"/>
+      <c r="AK12" s="247"/>
+      <c r="AL12" s="264"/>
+      <c r="AM12" s="248"/>
+      <c r="AN12" s="249"/>
+      <c r="AO12" s="247"/>
+      <c r="AP12" s="251"/>
+      <c r="AQ12" s="248"/>
+      <c r="AR12" s="249"/>
+      <c r="AS12" s="247"/>
+      <c r="AT12" s="251"/>
+      <c r="AU12" s="248"/>
+      <c r="AV12" s="298" t="s">
         <v>54</v>
       </c>
-      <c r="AW12" s="240" t="s">
+      <c r="AW12" s="277" t="s">
         <v>40</v>
       </c>
-      <c r="AX12" s="286">
+      <c r="AX12" s="271">
         <v>43786</v>
       </c>
-      <c r="AY12" s="259" t="s">
+      <c r="AY12" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="AZ12" s="254"/>
-      <c r="BA12" s="255"/>
-      <c r="BB12" s="255"/>
-      <c r="BC12" s="253"/>
-      <c r="BD12" s="254"/>
-      <c r="BE12" s="255"/>
-      <c r="BF12" s="255"/>
-      <c r="BG12" s="253"/>
-      <c r="BH12" s="254"/>
-      <c r="BI12" s="255"/>
-      <c r="BJ12" s="255"/>
-      <c r="BK12" s="253"/>
-      <c r="BL12" s="254"/>
-      <c r="BM12" s="255"/>
-      <c r="BN12" s="255"/>
-      <c r="BO12" s="253"/>
+      <c r="AZ12" s="249"/>
+      <c r="BA12" s="247"/>
+      <c r="BB12" s="247"/>
+      <c r="BC12" s="248"/>
+      <c r="BD12" s="249"/>
+      <c r="BE12" s="247"/>
+      <c r="BF12" s="247"/>
+      <c r="BG12" s="248"/>
+      <c r="BH12" s="249"/>
+      <c r="BI12" s="247"/>
+      <c r="BJ12" s="247"/>
+      <c r="BK12" s="248"/>
+      <c r="BL12" s="249"/>
+      <c r="BM12" s="247"/>
+      <c r="BN12" s="247"/>
+      <c r="BO12" s="248"/>
     </row>
     <row r="13" spans="1:69" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="240"/>
-      <c r="B13" s="240"/>
+      <c r="A13" s="277"/>
+      <c r="B13" s="277"/>
       <c r="C13" s="74" t="s">
         <v>56</v>
       </c>
@@ -4965,69 +4965,69 @@
       <c r="M13" s="197"/>
       <c r="N13" s="197"/>
       <c r="O13" s="198"/>
-      <c r="P13" s="241"/>
+      <c r="P13" s="298"/>
       <c r="Q13" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="R13" s="242"/>
-      <c r="S13" s="243"/>
-      <c r="T13" s="244"/>
-      <c r="U13" s="257"/>
-      <c r="V13" s="242"/>
-      <c r="W13" s="258"/>
-      <c r="X13" s="254"/>
-      <c r="Y13" s="255"/>
+      <c r="R13" s="301"/>
+      <c r="S13" s="265"/>
+      <c r="T13" s="303"/>
+      <c r="U13" s="299"/>
+      <c r="V13" s="301"/>
+      <c r="W13" s="302"/>
+      <c r="X13" s="249"/>
+      <c r="Y13" s="247"/>
       <c r="Z13" s="80"/>
-      <c r="AA13" s="253"/>
-      <c r="AB13" s="254"/>
-      <c r="AC13" s="255"/>
-      <c r="AD13" s="252"/>
-      <c r="AE13" s="253"/>
-      <c r="AF13" s="254"/>
-      <c r="AG13" s="255"/>
-      <c r="AH13" s="252"/>
-      <c r="AI13" s="253"/>
-      <c r="AJ13" s="254"/>
-      <c r="AK13" s="255"/>
-      <c r="AL13" s="256"/>
-      <c r="AM13" s="253"/>
-      <c r="AN13" s="254"/>
-      <c r="AO13" s="255"/>
-      <c r="AP13" s="252"/>
-      <c r="AQ13" s="253"/>
-      <c r="AR13" s="254"/>
-      <c r="AS13" s="255"/>
-      <c r="AT13" s="252"/>
-      <c r="AU13" s="253"/>
-      <c r="AV13" s="241"/>
-      <c r="AW13" s="240"/>
-      <c r="AX13" s="286"/>
-      <c r="AY13" s="259"/>
-      <c r="AZ13" s="254"/>
-      <c r="BA13" s="255"/>
-      <c r="BB13" s="255"/>
-      <c r="BC13" s="253"/>
-      <c r="BD13" s="254"/>
-      <c r="BE13" s="255"/>
-      <c r="BF13" s="255"/>
-      <c r="BG13" s="253"/>
-      <c r="BH13" s="254"/>
-      <c r="BI13" s="255"/>
-      <c r="BJ13" s="255"/>
-      <c r="BK13" s="253"/>
-      <c r="BL13" s="254"/>
-      <c r="BM13" s="255"/>
-      <c r="BN13" s="255"/>
-      <c r="BO13" s="253"/>
+      <c r="AA13" s="248"/>
+      <c r="AB13" s="249"/>
+      <c r="AC13" s="247"/>
+      <c r="AD13" s="251"/>
+      <c r="AE13" s="248"/>
+      <c r="AF13" s="249"/>
+      <c r="AG13" s="247"/>
+      <c r="AH13" s="251"/>
+      <c r="AI13" s="248"/>
+      <c r="AJ13" s="249"/>
+      <c r="AK13" s="247"/>
+      <c r="AL13" s="264"/>
+      <c r="AM13" s="248"/>
+      <c r="AN13" s="249"/>
+      <c r="AO13" s="247"/>
+      <c r="AP13" s="251"/>
+      <c r="AQ13" s="248"/>
+      <c r="AR13" s="249"/>
+      <c r="AS13" s="247"/>
+      <c r="AT13" s="251"/>
+      <c r="AU13" s="248"/>
+      <c r="AV13" s="298"/>
+      <c r="AW13" s="277"/>
+      <c r="AX13" s="271"/>
+      <c r="AY13" s="274"/>
+      <c r="AZ13" s="249"/>
+      <c r="BA13" s="247"/>
+      <c r="BB13" s="247"/>
+      <c r="BC13" s="248"/>
+      <c r="BD13" s="249"/>
+      <c r="BE13" s="247"/>
+      <c r="BF13" s="247"/>
+      <c r="BG13" s="248"/>
+      <c r="BH13" s="249"/>
+      <c r="BI13" s="247"/>
+      <c r="BJ13" s="247"/>
+      <c r="BK13" s="248"/>
+      <c r="BL13" s="249"/>
+      <c r="BM13" s="247"/>
+      <c r="BN13" s="247"/>
+      <c r="BO13" s="248"/>
     </row>
     <row r="14" spans="1:69" ht="65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="262" t="s">
+      <c r="A14" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="266" t="s">
+      <c r="C14" s="275" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="192"/>
@@ -5042,16 +5042,16 @@
       <c r="M14" s="192"/>
       <c r="N14" s="192"/>
       <c r="O14" s="193"/>
-      <c r="P14" s="262" t="s">
+      <c r="P14" s="256" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="264" t="s">
+      <c r="Q14" s="258" t="s">
         <v>26</v>
       </c>
-      <c r="R14" s="297">
+      <c r="R14" s="282">
         <v>43729</v>
       </c>
-      <c r="S14" s="299" t="s">
+      <c r="S14" s="283" t="s">
         <v>19</v>
       </c>
       <c r="T14" s="201"/>
@@ -5078,53 +5078,53 @@
       <c r="AG14" s="202"/>
       <c r="AH14" s="122"/>
       <c r="AI14" s="119"/>
-      <c r="AJ14" s="260"/>
-      <c r="AK14" s="274"/>
-      <c r="AL14" s="276"/>
-      <c r="AM14" s="278"/>
-      <c r="AN14" s="260"/>
-      <c r="AO14" s="274"/>
-      <c r="AP14" s="276"/>
-      <c r="AQ14" s="278"/>
-      <c r="AR14" s="262" t="s">
+      <c r="AJ14" s="237"/>
+      <c r="AK14" s="239"/>
+      <c r="AL14" s="241"/>
+      <c r="AM14" s="243"/>
+      <c r="AN14" s="237"/>
+      <c r="AO14" s="239"/>
+      <c r="AP14" s="241"/>
+      <c r="AQ14" s="243"/>
+      <c r="AR14" s="256" t="s">
         <v>54</v>
       </c>
-      <c r="AS14" s="264" t="s">
+      <c r="AS14" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="AT14" s="293">
+      <c r="AT14" s="260">
         <v>43779</v>
       </c>
-      <c r="AU14" s="295" t="s">
+      <c r="AU14" s="262" t="s">
         <v>18</v>
       </c>
       <c r="AV14" s="203"/>
       <c r="AW14" s="202"/>
       <c r="AX14" s="204"/>
-      <c r="AY14" s="278"/>
+      <c r="AY14" s="243"/>
       <c r="AZ14" s="203"/>
       <c r="BA14" s="202"/>
       <c r="BB14" s="204"/>
-      <c r="BC14" s="278"/>
+      <c r="BC14" s="243"/>
       <c r="BD14" s="203"/>
       <c r="BE14" s="202"/>
       <c r="BF14" s="204"/>
-      <c r="BG14" s="278"/>
+      <c r="BG14" s="243"/>
       <c r="BH14" s="203"/>
       <c r="BI14" s="202"/>
       <c r="BJ14" s="204"/>
-      <c r="BK14" s="278"/>
+      <c r="BK14" s="243"/>
       <c r="BL14" s="203"/>
       <c r="BM14" s="202"/>
       <c r="BN14" s="204"/>
-      <c r="BO14" s="278"/>
+      <c r="BO14" s="243"/>
       <c r="BP14" s="8"/>
       <c r="BQ14" s="8"/>
     </row>
     <row r="15" spans="1:69" ht="63.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="263"/>
-      <c r="B15" s="265"/>
-      <c r="C15" s="267"/>
+      <c r="A15" s="257"/>
+      <c r="B15" s="259"/>
+      <c r="C15" s="276"/>
       <c r="D15" s="205"/>
       <c r="E15" s="185"/>
       <c r="F15" s="185"/>
@@ -5137,10 +5137,10 @@
       <c r="M15" s="185"/>
       <c r="N15" s="185"/>
       <c r="O15" s="186"/>
-      <c r="P15" s="263"/>
-      <c r="Q15" s="265"/>
-      <c r="R15" s="298"/>
-      <c r="S15" s="300"/>
+      <c r="P15" s="257"/>
+      <c r="Q15" s="259"/>
+      <c r="R15" s="272"/>
+      <c r="S15" s="284"/>
       <c r="T15" s="189"/>
       <c r="U15" s="190"/>
       <c r="V15" s="123"/>
@@ -5165,77 +5165,77 @@
       <c r="AG15" s="190"/>
       <c r="AH15" s="115"/>
       <c r="AI15" s="116"/>
-      <c r="AJ15" s="261"/>
-      <c r="AK15" s="275"/>
-      <c r="AL15" s="277"/>
-      <c r="AM15" s="279"/>
-      <c r="AN15" s="261"/>
-      <c r="AO15" s="275"/>
-      <c r="AP15" s="277"/>
-      <c r="AQ15" s="279"/>
-      <c r="AR15" s="263"/>
-      <c r="AS15" s="265"/>
-      <c r="AT15" s="294"/>
-      <c r="AU15" s="296"/>
+      <c r="AJ15" s="238"/>
+      <c r="AK15" s="240"/>
+      <c r="AL15" s="242"/>
+      <c r="AM15" s="244"/>
+      <c r="AN15" s="238"/>
+      <c r="AO15" s="240"/>
+      <c r="AP15" s="242"/>
+      <c r="AQ15" s="244"/>
+      <c r="AR15" s="257"/>
+      <c r="AS15" s="259"/>
+      <c r="AT15" s="261"/>
+      <c r="AU15" s="263"/>
       <c r="AV15" s="189"/>
       <c r="AW15" s="190"/>
       <c r="AX15" s="191"/>
-      <c r="AY15" s="279"/>
+      <c r="AY15" s="244"/>
       <c r="AZ15" s="189"/>
       <c r="BA15" s="190"/>
       <c r="BB15" s="191"/>
-      <c r="BC15" s="279"/>
+      <c r="BC15" s="244"/>
       <c r="BD15" s="189"/>
       <c r="BE15" s="190"/>
       <c r="BF15" s="191"/>
-      <c r="BG15" s="279"/>
+      <c r="BG15" s="244"/>
       <c r="BH15" s="189"/>
       <c r="BI15" s="190"/>
       <c r="BJ15" s="191"/>
-      <c r="BK15" s="279"/>
+      <c r="BK15" s="244"/>
       <c r="BL15" s="189"/>
       <c r="BM15" s="190"/>
       <c r="BN15" s="191"/>
-      <c r="BO15" s="279"/>
+      <c r="BO15" s="244"/>
     </row>
     <row r="16" spans="1:69" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="255" t="s">
+      <c r="A16" s="247" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="240" t="s">
+      <c r="B16" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="270" t="s">
+      <c r="C16" s="278" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="288"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="288"/>
-      <c r="I16" s="289"/>
-      <c r="J16" s="289"/>
-      <c r="K16" s="290"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="288"/>
+      <c r="F16" s="288"/>
+      <c r="G16" s="289"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="288"/>
+      <c r="J16" s="288"/>
+      <c r="K16" s="289"/>
       <c r="L16" s="208"/>
       <c r="M16" s="197"/>
       <c r="N16" s="197"/>
       <c r="O16" s="198"/>
-      <c r="P16" s="271" t="s">
+      <c r="P16" s="279" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="240" t="s">
+      <c r="Q16" s="277" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="286">
+      <c r="R16" s="271">
         <v>43729</v>
       </c>
-      <c r="S16" s="287" t="s">
+      <c r="S16" s="286" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="273"/>
-      <c r="U16" s="255"/>
-      <c r="V16" s="252"/>
-      <c r="W16" s="253"/>
+      <c r="T16" s="250"/>
+      <c r="U16" s="247"/>
+      <c r="V16" s="251"/>
+      <c r="W16" s="248"/>
       <c r="X16" s="85" t="s">
         <v>52</v>
       </c>
@@ -5264,55 +5264,55 @@
       <c r="AO16" s="210"/>
       <c r="AP16" s="80"/>
       <c r="AQ16" s="81"/>
-      <c r="AR16" s="273"/>
-      <c r="AS16" s="256"/>
-      <c r="AT16" s="256"/>
-      <c r="AU16" s="253"/>
-      <c r="AV16" s="273"/>
-      <c r="AW16" s="255"/>
-      <c r="AX16" s="255"/>
-      <c r="AY16" s="253"/>
-      <c r="AZ16" s="273"/>
-      <c r="BA16" s="255"/>
-      <c r="BB16" s="255"/>
-      <c r="BC16" s="253"/>
-      <c r="BD16" s="273"/>
-      <c r="BE16" s="255"/>
-      <c r="BF16" s="255"/>
-      <c r="BG16" s="253"/>
-      <c r="BH16" s="273"/>
-      <c r="BI16" s="255"/>
-      <c r="BJ16" s="255"/>
-      <c r="BK16" s="253"/>
-      <c r="BL16" s="273"/>
-      <c r="BM16" s="255"/>
-      <c r="BN16" s="255"/>
-      <c r="BO16" s="253"/>
+      <c r="AR16" s="250"/>
+      <c r="AS16" s="264"/>
+      <c r="AT16" s="264"/>
+      <c r="AU16" s="248"/>
+      <c r="AV16" s="250"/>
+      <c r="AW16" s="247"/>
+      <c r="AX16" s="247"/>
+      <c r="AY16" s="248"/>
+      <c r="AZ16" s="250"/>
+      <c r="BA16" s="247"/>
+      <c r="BB16" s="247"/>
+      <c r="BC16" s="248"/>
+      <c r="BD16" s="250"/>
+      <c r="BE16" s="247"/>
+      <c r="BF16" s="247"/>
+      <c r="BG16" s="248"/>
+      <c r="BH16" s="250"/>
+      <c r="BI16" s="247"/>
+      <c r="BJ16" s="247"/>
+      <c r="BK16" s="248"/>
+      <c r="BL16" s="250"/>
+      <c r="BM16" s="247"/>
+      <c r="BN16" s="247"/>
+      <c r="BO16" s="248"/>
     </row>
     <row r="17" spans="1:67" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="255"/>
-      <c r="B17" s="240"/>
-      <c r="C17" s="270"/>
-      <c r="D17" s="288"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="289"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="288"/>
-      <c r="I17" s="289"/>
-      <c r="J17" s="289"/>
-      <c r="K17" s="290"/>
+      <c r="A17" s="247"/>
+      <c r="B17" s="277"/>
+      <c r="C17" s="278"/>
+      <c r="D17" s="287"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="288"/>
+      <c r="G17" s="289"/>
+      <c r="H17" s="287"/>
+      <c r="I17" s="288"/>
+      <c r="J17" s="288"/>
+      <c r="K17" s="289"/>
       <c r="L17" s="197"/>
       <c r="M17" s="197"/>
       <c r="N17" s="197"/>
       <c r="O17" s="198"/>
-      <c r="P17" s="271"/>
-      <c r="Q17" s="240"/>
-      <c r="R17" s="286"/>
-      <c r="S17" s="287"/>
-      <c r="T17" s="273"/>
-      <c r="U17" s="255"/>
-      <c r="V17" s="252"/>
-      <c r="W17" s="253"/>
+      <c r="P17" s="279"/>
+      <c r="Q17" s="277"/>
+      <c r="R17" s="271"/>
+      <c r="S17" s="286"/>
+      <c r="T17" s="250"/>
+      <c r="U17" s="247"/>
+      <c r="V17" s="251"/>
+      <c r="W17" s="248"/>
       <c r="X17" s="86" t="s">
         <v>53</v>
       </c>
@@ -5341,30 +5341,30 @@
       <c r="AO17" s="210"/>
       <c r="AP17" s="80"/>
       <c r="AQ17" s="81"/>
-      <c r="AR17" s="273"/>
-      <c r="AS17" s="256"/>
-      <c r="AT17" s="256"/>
-      <c r="AU17" s="253"/>
-      <c r="AV17" s="273"/>
-      <c r="AW17" s="255"/>
-      <c r="AX17" s="255"/>
-      <c r="AY17" s="253"/>
-      <c r="AZ17" s="273"/>
-      <c r="BA17" s="255"/>
-      <c r="BB17" s="255"/>
-      <c r="BC17" s="253"/>
-      <c r="BD17" s="273"/>
-      <c r="BE17" s="255"/>
-      <c r="BF17" s="255"/>
-      <c r="BG17" s="253"/>
-      <c r="BH17" s="273"/>
-      <c r="BI17" s="255"/>
-      <c r="BJ17" s="255"/>
-      <c r="BK17" s="253"/>
-      <c r="BL17" s="273"/>
-      <c r="BM17" s="255"/>
-      <c r="BN17" s="255"/>
-      <c r="BO17" s="253"/>
+      <c r="AR17" s="250"/>
+      <c r="AS17" s="264"/>
+      <c r="AT17" s="264"/>
+      <c r="AU17" s="248"/>
+      <c r="AV17" s="250"/>
+      <c r="AW17" s="247"/>
+      <c r="AX17" s="247"/>
+      <c r="AY17" s="248"/>
+      <c r="AZ17" s="250"/>
+      <c r="BA17" s="247"/>
+      <c r="BB17" s="247"/>
+      <c r="BC17" s="248"/>
+      <c r="BD17" s="250"/>
+      <c r="BE17" s="247"/>
+      <c r="BF17" s="247"/>
+      <c r="BG17" s="248"/>
+      <c r="BH17" s="250"/>
+      <c r="BI17" s="247"/>
+      <c r="BJ17" s="247"/>
+      <c r="BK17" s="248"/>
+      <c r="BL17" s="250"/>
+      <c r="BM17" s="247"/>
+      <c r="BN17" s="247"/>
+      <c r="BO17" s="248"/>
     </row>
     <row r="18" spans="1:67" ht="72.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="213" t="s">
@@ -5547,6 +5547,198 @@
     </row>
   </sheetData>
   <mergeCells count="216">
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="AP12:AP13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AM12:AM13"/>
+    <mergeCell ref="AF12:AF13"/>
+    <mergeCell ref="AG12:AG13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AR12:AR13"/>
+    <mergeCell ref="AS12:AS13"/>
+    <mergeCell ref="AU12:AU13"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="AV12:AV13"/>
+    <mergeCell ref="AW12:AW13"/>
+    <mergeCell ref="AY12:AY13"/>
+    <mergeCell ref="AT12:AT13"/>
+    <mergeCell ref="AR10:AR11"/>
+    <mergeCell ref="AP10:AP11"/>
+    <mergeCell ref="AQ10:AQ11"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AS10:AS11"/>
+    <mergeCell ref="AT10:AT11"/>
+    <mergeCell ref="AU10:AU11"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AX12:AX13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="V16:V17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AN10:AN11"/>
+    <mergeCell ref="AO10:AO11"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="AN12:AN13"/>
+    <mergeCell ref="AO12:AO13"/>
+    <mergeCell ref="AQ12:AQ13"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="AD12:AD13"/>
+    <mergeCell ref="AE12:AE13"/>
+    <mergeCell ref="AY14:AY15"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AN14:AN15"/>
+    <mergeCell ref="AO14:AO15"/>
+    <mergeCell ref="AP14:AP15"/>
+    <mergeCell ref="AQ14:AQ15"/>
+    <mergeCell ref="AR14:AR15"/>
+    <mergeCell ref="AS14:AS15"/>
+    <mergeCell ref="AT14:AT15"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="AR16:AR17"/>
+    <mergeCell ref="AS16:AS17"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="AZ10:AZ11"/>
+    <mergeCell ref="BA10:BA11"/>
+    <mergeCell ref="BB10:BB11"/>
+    <mergeCell ref="BC10:BC11"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BH10:BH11"/>
+    <mergeCell ref="BI10:BI11"/>
+    <mergeCell ref="BJ10:BJ11"/>
+    <mergeCell ref="BK10:BK11"/>
+    <mergeCell ref="BD1:BG1"/>
+    <mergeCell ref="BD10:BD11"/>
+    <mergeCell ref="BE10:BE11"/>
+    <mergeCell ref="BF10:BF11"/>
+    <mergeCell ref="BG10:BG11"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BL10:BL11"/>
+    <mergeCell ref="BM10:BM11"/>
+    <mergeCell ref="BN10:BN11"/>
+    <mergeCell ref="BO10:BO11"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BM12:BM13"/>
+    <mergeCell ref="BN12:BN13"/>
+    <mergeCell ref="BO12:BO13"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BM16:BM17"/>
+    <mergeCell ref="BN16:BN17"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AJ10:AJ11"/>
+    <mergeCell ref="BH12:BH13"/>
+    <mergeCell ref="BI12:BI13"/>
+    <mergeCell ref="BJ12:BJ13"/>
+    <mergeCell ref="BK12:BK13"/>
+    <mergeCell ref="BK14:BK15"/>
+    <mergeCell ref="BH16:BH17"/>
+    <mergeCell ref="BI16:BI17"/>
+    <mergeCell ref="BJ16:BJ17"/>
+    <mergeCell ref="BK16:BK17"/>
+    <mergeCell ref="BG14:BG15"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BE16:BE17"/>
+    <mergeCell ref="BF16:BF17"/>
+    <mergeCell ref="BG16:BG17"/>
+    <mergeCell ref="BD12:BD13"/>
     <mergeCell ref="AJ4:AJ5"/>
     <mergeCell ref="AL4:AL5"/>
     <mergeCell ref="AK4:AK5"/>
@@ -5571,198 +5763,6 @@
     <mergeCell ref="AW10:AW11"/>
     <mergeCell ref="AX10:AX11"/>
     <mergeCell ref="AY10:AY11"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BM16:BM17"/>
-    <mergeCell ref="BN16:BN17"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AJ10:AJ11"/>
-    <mergeCell ref="BH12:BH13"/>
-    <mergeCell ref="BI12:BI13"/>
-    <mergeCell ref="BJ12:BJ13"/>
-    <mergeCell ref="BK12:BK13"/>
-    <mergeCell ref="BK14:BK15"/>
-    <mergeCell ref="BH16:BH17"/>
-    <mergeCell ref="BI16:BI17"/>
-    <mergeCell ref="BJ16:BJ17"/>
-    <mergeCell ref="BK16:BK17"/>
-    <mergeCell ref="BG14:BG15"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="BE16:BE17"/>
-    <mergeCell ref="BF16:BF17"/>
-    <mergeCell ref="BG16:BG17"/>
-    <mergeCell ref="BD12:BD13"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BL10:BL11"/>
-    <mergeCell ref="BM10:BM11"/>
-    <mergeCell ref="BN10:BN11"/>
-    <mergeCell ref="BO10:BO11"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BM12:BM13"/>
-    <mergeCell ref="BN12:BN13"/>
-    <mergeCell ref="BO12:BO13"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BH10:BH11"/>
-    <mergeCell ref="BI10:BI11"/>
-    <mergeCell ref="BJ10:BJ11"/>
-    <mergeCell ref="BK10:BK11"/>
-    <mergeCell ref="BD1:BG1"/>
-    <mergeCell ref="BD10:BD11"/>
-    <mergeCell ref="BE10:BE11"/>
-    <mergeCell ref="BF10:BF11"/>
-    <mergeCell ref="BG10:BG11"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="AZ10:AZ11"/>
-    <mergeCell ref="BA10:BA11"/>
-    <mergeCell ref="BB10:BB11"/>
-    <mergeCell ref="BC10:BC11"/>
-    <mergeCell ref="AY14:AY15"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AN14:AN15"/>
-    <mergeCell ref="AO14:AO15"/>
-    <mergeCell ref="AP14:AP15"/>
-    <mergeCell ref="AQ14:AQ15"/>
-    <mergeCell ref="AR14:AR15"/>
-    <mergeCell ref="AS14:AS15"/>
-    <mergeCell ref="AT14:AT15"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="AR16:AR17"/>
-    <mergeCell ref="AS16:AS17"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="AN12:AN13"/>
-    <mergeCell ref="AO12:AO13"/>
-    <mergeCell ref="AQ12:AQ13"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AN10:AN11"/>
-    <mergeCell ref="AO10:AO11"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="W16:W17"/>
-    <mergeCell ref="V16:V17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AR12:AR13"/>
-    <mergeCell ref="AS12:AS13"/>
-    <mergeCell ref="AU12:AU13"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="AV12:AV13"/>
-    <mergeCell ref="AW12:AW13"/>
-    <mergeCell ref="AY12:AY13"/>
-    <mergeCell ref="AT12:AT13"/>
-    <mergeCell ref="AR10:AR11"/>
-    <mergeCell ref="AP10:AP11"/>
-    <mergeCell ref="AQ10:AQ11"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AS10:AS11"/>
-    <mergeCell ref="AT10:AT11"/>
-    <mergeCell ref="AU10:AU11"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AX12:AX13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="AD12:AD13"/>
-    <mergeCell ref="AE12:AE13"/>
-    <mergeCell ref="AF12:AF13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="V12:V13"/>
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="AP12:AP13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AM12:AM13"/>
   </mergeCells>
   <conditionalFormatting sqref="W12 AA9:AA10 AE9:AE10 AI9 AM12 W15:W16 AA15 AE15:AE17 AI15:AI19 AM16:AM17 AI12 AM19 AE19 S8 S12 S10 AA12 AE12 AA17:AA19 W18:W19 S18:S19 S16 S14 AQ12 AQ16:AQ19 AU16 AY10 AY16 AY14">
     <cfRule type="containsText" dxfId="112" priority="176" operator="containsText" text="o">
@@ -6709,62 +6709,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="323" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="329" t="s">
+      <c r="B1" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="247" t="s">
+      <c r="C1" s="306" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="236" t="s">
+      <c r="D1" s="252" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="237"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="232" t="s">
+      <c r="E1" s="253"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="294" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="233"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="235"/>
-      <c r="L1" s="236" t="s">
+      <c r="I1" s="295"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="252" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="237"/>
-      <c r="N1" s="238"/>
-      <c r="O1" s="239"/>
-      <c r="P1" s="232" t="s">
+      <c r="M1" s="253"/>
+      <c r="N1" s="254"/>
+      <c r="O1" s="255"/>
+      <c r="P1" s="294" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="233"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="235"/>
-      <c r="T1" s="236" t="s">
+      <c r="Q1" s="295"/>
+      <c r="R1" s="296"/>
+      <c r="S1" s="297"/>
+      <c r="T1" s="252" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="237"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="239"/>
-      <c r="X1" s="232" t="s">
+      <c r="U1" s="253"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="255"/>
+      <c r="X1" s="294" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" s="233"/>
-      <c r="Z1" s="234"/>
-      <c r="AA1" s="235"/>
-      <c r="AB1" s="236" t="s">
+      <c r="Y1" s="295"/>
+      <c r="Z1" s="296"/>
+      <c r="AA1" s="297"/>
+      <c r="AB1" s="252" t="s">
         <v>102</v>
       </c>
-      <c r="AC1" s="237"/>
-      <c r="AD1" s="238"/>
-      <c r="AE1" s="239"/>
+      <c r="AC1" s="253"/>
+      <c r="AD1" s="254"/>
+      <c r="AE1" s="255"/>
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="328"/>
-      <c r="B2" s="330"/>
-      <c r="C2" s="331"/>
+      <c r="A2" s="324"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="327"/>
       <c r="D2" s="13" t="s">
         <v>0</v>
       </c>
@@ -7087,104 +7087,104 @@
       <c r="AE6" s="62"/>
     </row>
     <row r="7" spans="1:31" ht="51" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="332" t="s">
+      <c r="A7" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="315" t="s">
+      <c r="B7" s="330" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="315" t="s">
+      <c r="D7" s="330" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="323">
+      <c r="F7" s="342">
         <v>43729</v>
       </c>
-      <c r="G7" s="317" t="s">
+      <c r="G7" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="319" t="s">
+      <c r="H7" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="321" t="s">
+      <c r="I7" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="323">
+      <c r="J7" s="342">
         <v>43744</v>
       </c>
-      <c r="K7" s="338" t="s">
+      <c r="K7" s="315" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="344"/>
-      <c r="M7" s="340"/>
+      <c r="L7" s="321"/>
+      <c r="M7" s="317"/>
       <c r="N7" s="60"/>
-      <c r="O7" s="342"/>
-      <c r="P7" s="344"/>
-      <c r="Q7" s="340"/>
-      <c r="R7" s="325"/>
-      <c r="S7" s="342"/>
-      <c r="T7" s="315" t="s">
+      <c r="O7" s="319"/>
+      <c r="P7" s="321"/>
+      <c r="Q7" s="317"/>
+      <c r="R7" s="344"/>
+      <c r="S7" s="319"/>
+      <c r="T7" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="334" t="s">
+      <c r="U7" s="311" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="311">
+      <c r="V7" s="332">
         <v>43779</v>
       </c>
-      <c r="W7" s="336" t="s">
+      <c r="W7" s="313" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="344"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="313"/>
-      <c r="AA7" s="342"/>
-      <c r="AB7" s="344"/>
-      <c r="AC7" s="340"/>
+      <c r="X7" s="321"/>
+      <c r="Y7" s="317"/>
+      <c r="Z7" s="334"/>
+      <c r="AA7" s="319"/>
+      <c r="AB7" s="321"/>
+      <c r="AC7" s="317"/>
       <c r="AD7" s="144"/>
-      <c r="AE7" s="342"/>
+      <c r="AE7" s="319"/>
     </row>
     <row r="8" spans="1:31" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="333"/>
-      <c r="B8" s="316"/>
+      <c r="A8" s="329"/>
+      <c r="B8" s="331"/>
       <c r="C8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="316"/>
+      <c r="D8" s="331"/>
       <c r="E8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="324"/>
-      <c r="G8" s="318"/>
-      <c r="H8" s="320"/>
-      <c r="I8" s="322"/>
-      <c r="J8" s="324"/>
-      <c r="K8" s="339"/>
-      <c r="L8" s="345"/>
-      <c r="M8" s="341"/>
+      <c r="F8" s="343"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="341"/>
+      <c r="J8" s="343"/>
+      <c r="K8" s="316"/>
+      <c r="L8" s="322"/>
+      <c r="M8" s="318"/>
       <c r="N8" s="61"/>
-      <c r="O8" s="343"/>
-      <c r="P8" s="345"/>
-      <c r="Q8" s="341"/>
-      <c r="R8" s="326"/>
-      <c r="S8" s="343"/>
-      <c r="T8" s="316"/>
-      <c r="U8" s="335"/>
-      <c r="V8" s="312"/>
-      <c r="W8" s="337"/>
-      <c r="X8" s="345"/>
-      <c r="Y8" s="341"/>
-      <c r="Z8" s="314"/>
-      <c r="AA8" s="343"/>
-      <c r="AB8" s="345"/>
-      <c r="AC8" s="341"/>
+      <c r="O8" s="320"/>
+      <c r="P8" s="322"/>
+      <c r="Q8" s="318"/>
+      <c r="R8" s="345"/>
+      <c r="S8" s="320"/>
+      <c r="T8" s="331"/>
+      <c r="U8" s="312"/>
+      <c r="V8" s="333"/>
+      <c r="W8" s="314"/>
+      <c r="X8" s="322"/>
+      <c r="Y8" s="318"/>
+      <c r="Z8" s="335"/>
+      <c r="AA8" s="320"/>
+      <c r="AB8" s="322"/>
+      <c r="AC8" s="318"/>
       <c r="AD8" s="79"/>
-      <c r="AE8" s="343"/>
+      <c r="AE8" s="320"/>
     </row>
     <row r="9" spans="1:31" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="181" t="s">
@@ -7437,6 +7437,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="W7:W8"/>
@@ -7453,27 +7474,6 @@
     <mergeCell ref="Y7:Y8"/>
     <mergeCell ref="AA7:AA8"/>
     <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G7 K5:K7 O5:O7 AA5:AA7 AE5:AE7 G9:G12 K9:K12 O9:O12 S9:S12 W9:W12 AA9:AA12 AE9:AE12 S3:S7 W3:W7">
     <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="o">
